--- a/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>YMM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>172300</v>
+        <v>194400</v>
       </c>
       <c r="E8" s="3">
-        <v>133500</v>
+        <v>175200</v>
       </c>
       <c r="F8" s="3">
-        <v>130900</v>
+        <v>135800</v>
       </c>
       <c r="G8" s="3">
-        <v>113200</v>
+        <v>133100</v>
       </c>
       <c r="H8" s="3">
-        <v>85800</v>
+        <v>115100</v>
       </c>
       <c r="I8" s="3">
-        <v>67500</v>
+        <v>87200</v>
       </c>
       <c r="J8" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K8" s="3">
         <v>93800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>101700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>96500</v>
+        <v>131800</v>
       </c>
       <c r="E9" s="3">
-        <v>63600</v>
+        <v>98200</v>
       </c>
       <c r="F9" s="3">
-        <v>61300</v>
+        <v>64600</v>
       </c>
       <c r="G9" s="3">
-        <v>53800</v>
+        <v>62400</v>
       </c>
       <c r="H9" s="3">
-        <v>58200</v>
+        <v>54800</v>
       </c>
       <c r="I9" s="3">
-        <v>29200</v>
+        <v>59200</v>
       </c>
       <c r="J9" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K9" s="3">
         <v>52500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>75700</v>
+        <v>62600</v>
       </c>
       <c r="E10" s="3">
-        <v>70000</v>
+        <v>77000</v>
       </c>
       <c r="F10" s="3">
-        <v>69600</v>
+        <v>71100</v>
       </c>
       <c r="G10" s="3">
-        <v>59300</v>
+        <v>70800</v>
       </c>
       <c r="H10" s="3">
-        <v>27500</v>
+        <v>60300</v>
       </c>
       <c r="I10" s="3">
-        <v>38300</v>
+        <v>28000</v>
       </c>
       <c r="J10" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K10" s="3">
         <v>41300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>23900</v>
+        <v>31800</v>
       </c>
       <c r="E12" s="3">
-        <v>21300</v>
+        <v>24300</v>
       </c>
       <c r="F12" s="3">
-        <v>18300</v>
+        <v>21600</v>
       </c>
       <c r="G12" s="3">
-        <v>17800</v>
+        <v>18600</v>
       </c>
       <c r="H12" s="3">
-        <v>13500</v>
+        <v>18100</v>
       </c>
       <c r="I12" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="J12" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K12" s="3">
         <v>17400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,26 +887,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>8700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,22 +964,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>486500</v>
+        <v>234700</v>
       </c>
       <c r="E17" s="3">
-        <v>164600</v>
+        <v>494600</v>
       </c>
       <c r="F17" s="3">
-        <v>562900</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>10</v>
+        <v>167400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>572300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
@@ -961,28 +988,31 @@
       <c r="I17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="3">
         <v>185000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-314200</v>
+        <v>-40300</v>
       </c>
       <c r="E18" s="3">
-        <v>-31100</v>
+        <v>-319400</v>
       </c>
       <c r="F18" s="3">
-        <v>-431900</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>10</v>
+        <v>-31600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-439200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>10</v>
@@ -990,14 +1020,17 @@
       <c r="I18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="3">
         <v>-91100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,22 +1042,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10800</v>
+        <v>13400</v>
       </c>
       <c r="E20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>10</v>
+      <c r="G20" s="3">
+        <v>7500</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>10</v>
@@ -1032,14 +1066,17 @@
       <c r="I20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="3">
         <v>6100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1049,11 +1086,11 @@
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3">
-        <v>-422400</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-421700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
@@ -1061,14 +1098,17 @@
       <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3">
         <v>-74100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1078,84 +1118,93 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>1100</v>
-      </c>
       <c r="J22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-303300</v>
+        <v>-27000</v>
       </c>
       <c r="E23" s="3">
-        <v>-27900</v>
+        <v>-308400</v>
       </c>
       <c r="F23" s="3">
-        <v>-424500</v>
+        <v>-28400</v>
       </c>
       <c r="G23" s="3">
-        <v>-51000</v>
+        <v>-431600</v>
       </c>
       <c r="H23" s="3">
-        <v>-46000</v>
+        <v>-51800</v>
       </c>
       <c r="I23" s="3">
-        <v>-9900</v>
+        <v>-46800</v>
       </c>
       <c r="J23" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-85800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-800</v>
       </c>
       <c r="K24" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,22 +1232,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-301500</v>
+        <v>-27900</v>
       </c>
       <c r="E26" s="3">
-        <v>-30300</v>
+        <v>-306600</v>
       </c>
       <c r="F26" s="3">
-        <v>-427400</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>10</v>
+        <v>-30800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-434500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>10</v>
@@ -1206,28 +1258,31 @@
       <c r="I26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="3">
         <v>-84900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-339700</v>
+        <v>-27900</v>
       </c>
       <c r="E27" s="3">
-        <v>-71900</v>
+        <v>-345400</v>
       </c>
       <c r="F27" s="3">
-        <v>-445900</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>10</v>
+        <v>-73100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-453400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>10</v>
@@ -1235,14 +1290,17 @@
       <c r="I27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="3">
         <v>-84900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1291,16 +1352,19 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,22 +1424,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10800</v>
+        <v>-13400</v>
       </c>
       <c r="E32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>10</v>
+      <c r="G32" s="3">
+        <v>-7500</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>10</v>
@@ -1380,28 +1450,31 @@
       <c r="I32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-339700</v>
+        <v>-27900</v>
       </c>
       <c r="E33" s="3">
-        <v>-71900</v>
+        <v>-345400</v>
       </c>
       <c r="F33" s="3">
-        <v>-445900</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>10</v>
+        <v>-73100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-453400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>10</v>
@@ -1409,14 +1482,17 @@
       <c r="I33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="3">
         <v>-84500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,22 +1520,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-339700</v>
+        <v>-27900</v>
       </c>
       <c r="E35" s="3">
-        <v>-71900</v>
+        <v>-345400</v>
       </c>
       <c r="F35" s="3">
-        <v>-445900</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>10</v>
+        <v>-73100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-453400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
@@ -1467,48 +1546,54 @@
       <c r="I35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="3">
         <v>-84500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,22 +1619,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1561500</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1549100</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>10</v>
+        <v>579800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1587700</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1575100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
@@ -1562,22 +1649,25 @@
       <c r="K41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2567000</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1344400</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
+        <v>3611200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2610000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1367000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -1591,22 +1681,25 @@
       <c r="K42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>254900</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="3">
-        <v>207700</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>10</v>
+        <v>271200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>259200</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3">
+        <v>211200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,22 +1745,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>152800</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="3">
-        <v>83600</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>10</v>
+        <v>187000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>155400</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="3">
+        <v>85000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>10</v>
@@ -1678,22 +1777,25 @@
       <c r="K45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4536200</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3">
-        <v>3184800</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>10</v>
+        <v>4649200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4612200</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3238200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>10</v>
@@ -1707,22 +1809,25 @@
       <c r="K46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>156100</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3">
-        <v>134800</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
+        <v>227300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>158800</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3">
+        <v>137000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
@@ -1736,22 +1841,25 @@
       <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5800</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>10</v>
+        <v>6300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>10</v>
@@ -1765,22 +1873,25 @@
       <c r="K48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>513100</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3">
-        <v>516800</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
+        <v>534000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>521700</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="3">
+        <v>525500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>10</v>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,22 +1969,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98800</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3">
-        <v>27600</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
+        <v>30600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100500</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="3">
+        <v>28100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>10</v>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,22 +2033,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5310100</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3">
-        <v>3870000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>10</v>
+        <v>5447400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5399100</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3934900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>10</v>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,23 +2095,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>10</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,22 +2157,25 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>295700</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="3">
-        <v>298500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>10</v>
+        <v>347400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300700</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3">
+        <v>303500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>10</v>
@@ -2052,22 +2189,25 @@
       <c r="K59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>299400</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="3">
-        <v>302200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>10</v>
+        <v>352300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>304400</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="3">
+        <v>307200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>10</v>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,22 +2253,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17400</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3">
-        <v>18300</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>10</v>
+        <v>18400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3">
+        <v>18600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>10</v>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,22 +2381,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>328200</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3">
-        <v>320500</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>10</v>
+        <v>382300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>333700</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3">
+        <v>325900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>10</v>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2338,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>5057600</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>5142400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,22 +2555,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2389900</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-2058100</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
+        <v>-2457900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2429900</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-2092600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,22 +2683,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4981900</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1508100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>10</v>
+        <v>5065200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5065400</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1533400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>10</v>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,56 +2747,62 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-339700</v>
+        <v>-27900</v>
       </c>
       <c r="E81" s="3">
-        <v>-71900</v>
+        <v>-345400</v>
       </c>
       <c r="F81" s="3">
-        <v>-445900</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>10</v>
+        <v>-73100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-453400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>10</v>
@@ -2615,14 +2810,17 @@
       <c r="I81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="3">
         <v>-84500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2645,11 +2844,11 @@
       <c r="E83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>10</v>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="3">
+        <v>10000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>10</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2819,11 +3036,11 @@
       <c r="E89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F89" s="3">
-        <v>55400</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>10</v>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="3">
+        <v>90000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>10</v>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2861,11 +3082,11 @@
       <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-8300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2948,11 +3178,11 @@
       <c r="E94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="3">
-        <v>-408300</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>10</v>
+      <c r="F94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-421300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>10</v>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3106,11 +3352,11 @@
       <c r="E100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="3">
-        <v>1465900</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>10</v>
+      <c r="F100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1303300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>10</v>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3135,11 +3384,11 @@
       <c r="E101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F101" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>10</v>
+      <c r="F101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-20000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>10</v>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3164,11 +3416,11 @@
       <c r="E102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="3">
-        <v>1101300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>10</v>
+      <c r="F102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="3">
+        <v>952000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>10</v>
@@ -3180,6 +3432,9 @@
         <v>10</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>YMM</t>
   </si>
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>194400</v>
+        <v>195900</v>
       </c>
       <c r="E8" s="3">
-        <v>175200</v>
+        <v>176500</v>
       </c>
       <c r="F8" s="3">
-        <v>135800</v>
+        <v>136800</v>
       </c>
       <c r="G8" s="3">
-        <v>133100</v>
+        <v>134200</v>
       </c>
       <c r="H8" s="3">
-        <v>115100</v>
+        <v>116000</v>
       </c>
       <c r="I8" s="3">
-        <v>87200</v>
+        <v>87900</v>
       </c>
       <c r="J8" s="3">
-        <v>68700</v>
+        <v>69200</v>
       </c>
       <c r="K8" s="3">
         <v>93800</v>
@@ -754,25 +754,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>131800</v>
+        <v>132800</v>
       </c>
       <c r="E9" s="3">
-        <v>98200</v>
+        <v>98900</v>
       </c>
       <c r="F9" s="3">
-        <v>64600</v>
+        <v>65100</v>
       </c>
       <c r="G9" s="3">
-        <v>62400</v>
+        <v>62800</v>
       </c>
       <c r="H9" s="3">
-        <v>54800</v>
+        <v>55200</v>
       </c>
       <c r="I9" s="3">
-        <v>59200</v>
+        <v>59700</v>
       </c>
       <c r="J9" s="3">
-        <v>29700</v>
+        <v>29900</v>
       </c>
       <c r="K9" s="3">
         <v>52500</v>
@@ -786,25 +786,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>62600</v>
+        <v>63000</v>
       </c>
       <c r="E10" s="3">
-        <v>77000</v>
+        <v>77600</v>
       </c>
       <c r="F10" s="3">
-        <v>71100</v>
+        <v>71700</v>
       </c>
       <c r="G10" s="3">
-        <v>70800</v>
+        <v>71300</v>
       </c>
       <c r="H10" s="3">
-        <v>60300</v>
+        <v>60800</v>
       </c>
       <c r="I10" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="J10" s="3">
-        <v>39000</v>
+        <v>39300</v>
       </c>
       <c r="K10" s="3">
         <v>41300</v>
@@ -832,25 +832,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>31800</v>
+        <v>32000</v>
       </c>
       <c r="E12" s="3">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="F12" s="3">
-        <v>21600</v>
+        <v>21800</v>
       </c>
       <c r="G12" s="3">
-        <v>18600</v>
+        <v>18800</v>
       </c>
       <c r="H12" s="3">
-        <v>18100</v>
+        <v>18300</v>
       </c>
       <c r="I12" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="J12" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="K12" s="3">
         <v>17400</v>
@@ -896,7 +896,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -971,16 +971,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>234700</v>
+        <v>236500</v>
       </c>
       <c r="E17" s="3">
-        <v>494600</v>
+        <v>498400</v>
       </c>
       <c r="F17" s="3">
-        <v>167400</v>
+        <v>168700</v>
       </c>
       <c r="G17" s="3">
-        <v>572300</v>
+        <v>576700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
@@ -1003,16 +1003,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-40300</v>
+        <v>-40600</v>
       </c>
       <c r="E18" s="3">
-        <v>-319400</v>
+        <v>-321900</v>
       </c>
       <c r="F18" s="3">
-        <v>-31600</v>
+        <v>-31800</v>
       </c>
       <c r="G18" s="3">
-        <v>-439200</v>
+        <v>-442500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>10</v>
@@ -1049,16 +1049,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="E20" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="F20" s="3">
         <v>3200</v>
       </c>
       <c r="G20" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>10</v>
@@ -1090,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="3">
-        <v>-421700</v>
+        <v>-424900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
@@ -1128,7 +1128,7 @@
         <v>700</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>1200</v>
@@ -1145,25 +1145,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-27000</v>
+        <v>-27200</v>
       </c>
       <c r="E23" s="3">
-        <v>-308400</v>
+        <v>-310800</v>
       </c>
       <c r="F23" s="3">
-        <v>-28400</v>
+        <v>-28600</v>
       </c>
       <c r="G23" s="3">
-        <v>-431600</v>
+        <v>-434900</v>
       </c>
       <c r="H23" s="3">
-        <v>-51800</v>
+        <v>-52200</v>
       </c>
       <c r="I23" s="3">
-        <v>-46800</v>
+        <v>-47200</v>
       </c>
       <c r="J23" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="K23" s="3">
         <v>-85800</v>
@@ -1180,10 +1180,10 @@
         <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F24" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G24" s="3">
         <v>2900</v>
@@ -1241,16 +1241,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-27900</v>
+        <v>-28100</v>
       </c>
       <c r="E26" s="3">
-        <v>-306600</v>
+        <v>-308900</v>
       </c>
       <c r="F26" s="3">
-        <v>-30800</v>
+        <v>-31100</v>
       </c>
       <c r="G26" s="3">
-        <v>-434500</v>
+        <v>-437900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>10</v>
@@ -1273,16 +1273,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-27900</v>
+        <v>-28100</v>
       </c>
       <c r="E27" s="3">
-        <v>-345400</v>
+        <v>-348100</v>
       </c>
       <c r="F27" s="3">
-        <v>-73100</v>
+        <v>-73700</v>
       </c>
       <c r="G27" s="3">
-        <v>-453400</v>
+        <v>-456800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>10</v>
@@ -1433,16 +1433,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13400</v>
+        <v>-13500</v>
       </c>
       <c r="E32" s="3">
-        <v>-11000</v>
+        <v>-11100</v>
       </c>
       <c r="F32" s="3">
         <v>-3200</v>
       </c>
       <c r="G32" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>10</v>
@@ -1465,16 +1465,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-27900</v>
+        <v>-28100</v>
       </c>
       <c r="E33" s="3">
-        <v>-345400</v>
+        <v>-348100</v>
       </c>
       <c r="F33" s="3">
-        <v>-73100</v>
+        <v>-73700</v>
       </c>
       <c r="G33" s="3">
-        <v>-453400</v>
+        <v>-456800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>10</v>
@@ -1529,16 +1529,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-27900</v>
+        <v>-28100</v>
       </c>
       <c r="E35" s="3">
-        <v>-345400</v>
+        <v>-348100</v>
       </c>
       <c r="F35" s="3">
-        <v>-73100</v>
+        <v>-73700</v>
       </c>
       <c r="G35" s="3">
-        <v>-453400</v>
+        <v>-456800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
@@ -1626,16 +1626,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>579800</v>
+        <v>584200</v>
       </c>
       <c r="E41" s="3">
-        <v>1587700</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1575100</v>
+        <v>1599800</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1587100</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
@@ -1658,16 +1658,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3611200</v>
+        <v>3638900</v>
       </c>
       <c r="E42" s="3">
-        <v>2610000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1367000</v>
+        <v>2630000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1377400</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -1690,16 +1690,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>271200</v>
+        <v>273300</v>
       </c>
       <c r="E43" s="3">
-        <v>259200</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="3">
-        <v>211200</v>
+        <v>261200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>212800</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
@@ -1754,16 +1754,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>187000</v>
+        <v>188400</v>
       </c>
       <c r="E45" s="3">
-        <v>155400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="3">
-        <v>85000</v>
+        <v>156500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>85700</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>10</v>
@@ -1786,16 +1786,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4649200</v>
+        <v>4684800</v>
       </c>
       <c r="E46" s="3">
-        <v>4612200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="3">
-        <v>3238200</v>
+        <v>4647500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3263000</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>10</v>
@@ -1818,16 +1818,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>227300</v>
+        <v>229000</v>
       </c>
       <c r="E47" s="3">
-        <v>158800</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="3">
-        <v>137000</v>
+        <v>160000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>138100</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
@@ -1850,16 +1850,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E48" s="3">
-        <v>5900</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6100</v>
+        <v>6000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>10</v>
@@ -1882,16 +1882,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>534000</v>
+        <v>538100</v>
       </c>
       <c r="E49" s="3">
-        <v>521700</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="3">
-        <v>525500</v>
+        <v>525700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>529500</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>10</v>
@@ -1978,16 +1978,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30600</v>
+        <v>30900</v>
       </c>
       <c r="E52" s="3">
-        <v>100500</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="3">
-        <v>28100</v>
+        <v>101200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>28300</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>10</v>
@@ -2042,16 +2042,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5447400</v>
+        <v>5489200</v>
       </c>
       <c r="E54" s="3">
-        <v>5399100</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3934900</v>
+        <v>5440500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3965000</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>10</v>
@@ -2107,11 +2107,11 @@
       <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3700</v>
+      <c r="F57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>10</v>
@@ -2166,16 +2166,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>347400</v>
+        <v>350100</v>
       </c>
       <c r="E59" s="3">
-        <v>300700</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="3">
-        <v>303500</v>
+        <v>303000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>305800</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>10</v>
@@ -2198,16 +2198,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>352300</v>
+        <v>355000</v>
       </c>
       <c r="E60" s="3">
-        <v>304400</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="3">
-        <v>307200</v>
+        <v>306800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>309600</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>10</v>
@@ -2262,16 +2262,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="E62" s="3">
-        <v>17700</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="3">
-        <v>18600</v>
+        <v>17900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>18700</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>10</v>
@@ -2390,16 +2390,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>382300</v>
+        <v>385200</v>
       </c>
       <c r="E66" s="3">
-        <v>333700</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="3">
-        <v>325900</v>
+        <v>336300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>328400</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>10</v>
@@ -2506,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>5181800</v>
       </c>
       <c r="G70" s="3">
-        <v>5142400</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2457900</v>
+        <v>-2476700</v>
       </c>
       <c r="E72" s="3">
-        <v>-2429900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-2092600</v>
+        <v>-2448600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-2108600</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
@@ -2692,16 +2692,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5065200</v>
+        <v>5104000</v>
       </c>
       <c r="E76" s="3">
-        <v>5065400</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1533400</v>
+        <v>5104200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-1545100</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>10</v>
@@ -2793,16 +2793,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-27900</v>
+        <v>-28100</v>
       </c>
       <c r="E81" s="3">
-        <v>-345400</v>
+        <v>-348100</v>
       </c>
       <c r="F81" s="3">
-        <v>-73100</v>
+        <v>-73700</v>
       </c>
       <c r="G81" s="3">
-        <v>-453400</v>
+        <v>-456800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>10</v>
@@ -2838,26 +2838,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>10</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -3030,26 +3030,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>10</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>90000</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>10</v>
@@ -3076,26 +3076,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -3172,26 +3172,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>10</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-421300</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -3346,26 +3346,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>10</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>1303300</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -3378,26 +3378,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>10</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -3410,26 +3410,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>10</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>952000</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>10</v>

--- a/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>YMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>195900</v>
+        <v>210600</v>
       </c>
       <c r="E8" s="3">
-        <v>176500</v>
+        <v>183000</v>
       </c>
       <c r="F8" s="3">
-        <v>136800</v>
+        <v>164900</v>
       </c>
       <c r="G8" s="3">
-        <v>134200</v>
+        <v>127800</v>
       </c>
       <c r="H8" s="3">
-        <v>116000</v>
+        <v>125300</v>
       </c>
       <c r="I8" s="3">
-        <v>87900</v>
+        <v>108300</v>
       </c>
       <c r="J8" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K8" s="3">
         <v>69200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>93800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>101700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>132800</v>
+        <v>97000</v>
       </c>
       <c r="E9" s="3">
-        <v>98900</v>
+        <v>124100</v>
       </c>
       <c r="F9" s="3">
-        <v>65100</v>
+        <v>92400</v>
       </c>
       <c r="G9" s="3">
-        <v>62800</v>
+        <v>60800</v>
       </c>
       <c r="H9" s="3">
-        <v>55200</v>
+        <v>58700</v>
       </c>
       <c r="I9" s="3">
-        <v>59700</v>
+        <v>51500</v>
       </c>
       <c r="J9" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K9" s="3">
         <v>29900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>63000</v>
+        <v>113600</v>
       </c>
       <c r="E10" s="3">
-        <v>77600</v>
+        <v>58900</v>
       </c>
       <c r="F10" s="3">
-        <v>71700</v>
+        <v>72500</v>
       </c>
       <c r="G10" s="3">
-        <v>71300</v>
+        <v>67000</v>
       </c>
       <c r="H10" s="3">
-        <v>60800</v>
+        <v>66600</v>
       </c>
       <c r="I10" s="3">
-        <v>28200</v>
+        <v>56800</v>
       </c>
       <c r="J10" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K10" s="3">
         <v>39300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +838,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>32000</v>
+        <v>34400</v>
       </c>
       <c r="E12" s="3">
-        <v>24500</v>
+        <v>29900</v>
       </c>
       <c r="F12" s="3">
-        <v>21800</v>
+        <v>22900</v>
       </c>
       <c r="G12" s="3">
-        <v>18800</v>
+        <v>20300</v>
       </c>
       <c r="H12" s="3">
-        <v>18300</v>
+        <v>17500</v>
       </c>
       <c r="I12" s="3">
-        <v>13900</v>
+        <v>17100</v>
       </c>
       <c r="J12" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K12" s="3">
         <v>14300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,28 +906,31 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>8800</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>8200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -922,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,25 +990,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>236500</v>
+        <v>418100</v>
       </c>
       <c r="E17" s="3">
-        <v>498400</v>
+        <v>220900</v>
       </c>
       <c r="F17" s="3">
-        <v>168700</v>
+        <v>465500</v>
       </c>
       <c r="G17" s="3">
-        <v>576700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
+        <v>157500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>538700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>10</v>
@@ -991,31 +1017,34 @@
       <c r="J17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="3">
         <v>185000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-40600</v>
+        <v>-207400</v>
       </c>
       <c r="E18" s="3">
-        <v>-321900</v>
+        <v>-37900</v>
       </c>
       <c r="F18" s="3">
-        <v>-31800</v>
+        <v>-300700</v>
       </c>
       <c r="G18" s="3">
-        <v>-442500</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
+        <v>-29700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-413400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>10</v>
@@ -1023,14 +1052,17 @@
       <c r="J18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="3">
         <v>-91100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,25 +1075,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="E20" s="3">
-        <v>11100</v>
+        <v>12600</v>
       </c>
       <c r="F20" s="3">
-        <v>3200</v>
+        <v>10400</v>
       </c>
       <c r="G20" s="3">
-        <v>7600</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
+        <v>3000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>7100</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>10</v>
@@ -1069,14 +1102,17 @@
       <c r="J20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="3">
         <v>6100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1089,11 +1125,11 @@
       <c r="F21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="3">
-        <v>-424900</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-396900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>10</v>
@@ -1101,14 +1137,17 @@
       <c r="J21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3">
         <v>-74100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1121,90 +1160,99 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
-        <v>200</v>
-      </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-27200</v>
+        <v>-194100</v>
       </c>
       <c r="E23" s="3">
-        <v>-310800</v>
+        <v>-25400</v>
       </c>
       <c r="F23" s="3">
-        <v>-28600</v>
+        <v>-290300</v>
       </c>
       <c r="G23" s="3">
-        <v>-434900</v>
+        <v>-26700</v>
       </c>
       <c r="H23" s="3">
-        <v>-52200</v>
+        <v>-406300</v>
       </c>
       <c r="I23" s="3">
-        <v>-47200</v>
+        <v>-48800</v>
       </c>
       <c r="J23" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-85800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
-        <v>-1900</v>
+        <v>900</v>
       </c>
       <c r="F24" s="3">
-        <v>2500</v>
+        <v>-1700</v>
       </c>
       <c r="G24" s="3">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="H24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I24" s="3">
         <v>-500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-300</v>
       </c>
       <c r="J24" s="3">
         <v>-200</v>
       </c>
       <c r="K24" s="3">
-        <v>-800</v>
+        <v>-200</v>
       </c>
       <c r="L24" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,25 +1283,28 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-28100</v>
+        <v>-194700</v>
       </c>
       <c r="E26" s="3">
-        <v>-308900</v>
+        <v>-26300</v>
       </c>
       <c r="F26" s="3">
-        <v>-31100</v>
+        <v>-288600</v>
       </c>
       <c r="G26" s="3">
-        <v>-437900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
+        <v>-29000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-409000</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>10</v>
@@ -1261,31 +1312,34 @@
       <c r="J26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3">
         <v>-84900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-28100</v>
+        <v>-194700</v>
       </c>
       <c r="E27" s="3">
-        <v>-348100</v>
+        <v>-26300</v>
       </c>
       <c r="F27" s="3">
-        <v>-73700</v>
+        <v>-325100</v>
       </c>
       <c r="G27" s="3">
-        <v>-456800</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>10</v>
+        <v>-68800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-426700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>10</v>
@@ -1293,14 +1347,17 @@
       <c r="J27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="3">
         <v>-84900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1355,16 +1415,19 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,25 +1493,28 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="E32" s="3">
-        <v>-11100</v>
+        <v>-12600</v>
       </c>
       <c r="F32" s="3">
-        <v>-3200</v>
+        <v>-10400</v>
       </c>
       <c r="G32" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>10</v>
+        <v>-3000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-7100</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>10</v>
@@ -1453,31 +1522,34 @@
       <c r="J32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="3">
         <v>-6100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-28100</v>
+        <v>-194700</v>
       </c>
       <c r="E33" s="3">
-        <v>-348100</v>
+        <v>-26300</v>
       </c>
       <c r="F33" s="3">
-        <v>-73700</v>
+        <v>-325100</v>
       </c>
       <c r="G33" s="3">
-        <v>-456800</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>10</v>
+        <v>-68800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-426700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>10</v>
@@ -1485,14 +1557,17 @@
       <c r="J33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="3">
         <v>-84500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,25 +1598,28 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-28100</v>
+        <v>-194700</v>
       </c>
       <c r="E35" s="3">
-        <v>-348100</v>
+        <v>-26300</v>
       </c>
       <c r="F35" s="3">
-        <v>-73700</v>
+        <v>-325100</v>
       </c>
       <c r="G35" s="3">
-        <v>-456800</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>10</v>
+        <v>-68800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-426700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>10</v>
@@ -1549,51 +1627,57 @@
       <c r="J35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="3">
         <v>-84500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,22 +1705,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>584200</v>
+        <v>631300</v>
       </c>
       <c r="E41" s="3">
-        <v>1599800</v>
+        <v>545700</v>
       </c>
       <c r="F41" s="3">
-        <v>1587100</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>10</v>
+        <v>1494400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1482500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
@@ -1652,22 +1738,25 @@
       <c r="L41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3638900</v>
+        <v>3188100</v>
       </c>
       <c r="E42" s="3">
-        <v>2630000</v>
+        <v>3399000</v>
       </c>
       <c r="F42" s="3">
-        <v>1377400</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
+        <v>2456600</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1286600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -1684,22 +1773,25 @@
       <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>273300</v>
+        <v>267300</v>
       </c>
       <c r="E43" s="3">
-        <v>261200</v>
+        <v>255300</v>
       </c>
       <c r="F43" s="3">
-        <v>212800</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>10</v>
+        <v>244000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>198700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
@@ -1716,8 +1808,11 @@
       <c r="L43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,22 +1843,25 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>188400</v>
+        <v>171700</v>
       </c>
       <c r="E45" s="3">
-        <v>156500</v>
+        <v>176000</v>
       </c>
       <c r="F45" s="3">
-        <v>85700</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>10</v>
+        <v>146200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>80000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>10</v>
@@ -1780,22 +1878,25 @@
       <c r="L45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4684800</v>
+        <v>4258400</v>
       </c>
       <c r="E46" s="3">
-        <v>4647500</v>
+        <v>4376000</v>
       </c>
       <c r="F46" s="3">
-        <v>3263000</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>10</v>
+        <v>4341200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3047900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>10</v>
@@ -1812,22 +1913,25 @@
       <c r="L46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>229000</v>
+        <v>247300</v>
       </c>
       <c r="E47" s="3">
-        <v>160000</v>
+        <v>213900</v>
       </c>
       <c r="F47" s="3">
-        <v>138100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
+        <v>149400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>129000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
@@ -1844,22 +1948,25 @@
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6400</v>
+        <v>15100</v>
       </c>
       <c r="E48" s="3">
         <v>6000</v>
       </c>
       <c r="F48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>10</v>
+        <v>5600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>10</v>
@@ -1876,22 +1983,25 @@
       <c r="L48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>538100</v>
+        <v>542600</v>
       </c>
       <c r="E49" s="3">
-        <v>525700</v>
+        <v>502600</v>
       </c>
       <c r="F49" s="3">
-        <v>529500</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
+        <v>491100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>494600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>10</v>
@@ -1908,8 +2018,11 @@
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,22 +2088,25 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30900</v>
+        <v>5600</v>
       </c>
       <c r="E52" s="3">
-        <v>101200</v>
+        <v>28800</v>
       </c>
       <c r="F52" s="3">
-        <v>28300</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
+        <v>94600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>26400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>10</v>
@@ -2004,8 +2123,11 @@
       <c r="L52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,22 +2158,25 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5489200</v>
+        <v>5069000</v>
       </c>
       <c r="E54" s="3">
-        <v>5440500</v>
+        <v>5127300</v>
       </c>
       <c r="F54" s="3">
-        <v>3965000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>10</v>
+        <v>5081800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3703700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>10</v>
@@ -2068,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,22 +2225,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4900</v>
+        <v>4300</v>
       </c>
       <c r="E57" s="3">
-        <v>3800</v>
+        <v>4600</v>
       </c>
       <c r="F57" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>10</v>
+        <v>3600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>3500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>10</v>
@@ -2128,31 +2258,34 @@
       <c r="L57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2160,22 +2293,25 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>350100</v>
+        <v>397200</v>
       </c>
       <c r="E59" s="3">
-        <v>303000</v>
+        <v>327000</v>
       </c>
       <c r="F59" s="3">
-        <v>305800</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>10</v>
+        <v>283000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>285700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>10</v>
@@ -2192,22 +2328,25 @@
       <c r="L59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>355000</v>
+        <v>402900</v>
       </c>
       <c r="E60" s="3">
-        <v>306800</v>
+        <v>331600</v>
       </c>
       <c r="F60" s="3">
-        <v>309600</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>10</v>
+        <v>286600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>289200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>10</v>
@@ -2224,8 +2363,11 @@
       <c r="L60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,22 +2398,25 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18500</v>
+        <v>20000</v>
       </c>
       <c r="E62" s="3">
-        <v>17900</v>
+        <v>17300</v>
       </c>
       <c r="F62" s="3">
-        <v>18700</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>10</v>
+        <v>16700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>17500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>10</v>
@@ -2288,8 +2433,11 @@
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,22 +2538,25 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>385200</v>
+        <v>433700</v>
       </c>
       <c r="E66" s="3">
-        <v>336300</v>
+        <v>359800</v>
       </c>
       <c r="F66" s="3">
-        <v>328400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>10</v>
+        <v>314100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>306700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>10</v>
@@ -2416,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2506,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>5181800</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>4840200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,22 +2728,25 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2476700</v>
+        <v>-2508100</v>
       </c>
       <c r="E72" s="3">
-        <v>-2448600</v>
+        <v>-2313400</v>
       </c>
       <c r="F72" s="3">
-        <v>-2108600</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
+        <v>-2287100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-1969600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
@@ -2590,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,22 +2868,25 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5104000</v>
+        <v>4635300</v>
       </c>
       <c r="E76" s="3">
-        <v>5104200</v>
+        <v>4767500</v>
       </c>
       <c r="F76" s="3">
-        <v>-1545100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>10</v>
+        <v>4767700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1443300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>10</v>
@@ -2718,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,62 +2938,68 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-28100</v>
+        <v>-194700</v>
       </c>
       <c r="E81" s="3">
-        <v>-348100</v>
+        <v>-26300</v>
       </c>
       <c r="F81" s="3">
-        <v>-73700</v>
+        <v>-325100</v>
       </c>
       <c r="G81" s="3">
-        <v>-456800</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>10</v>
+        <v>-68800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-426700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>10</v>
@@ -2813,14 +3007,17 @@
       <c r="J81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="3">
         <v>-84500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2859,14 +3057,17 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>10</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3238,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3051,14 +3267,17 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>10</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3097,14 +3317,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3393,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3193,14 +3422,17 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3583,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3367,14 +3612,17 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3399,14 +3647,17 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>10</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3431,10 +3682,13 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>10</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>YMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,193 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>210600</v>
+        <v>243900</v>
       </c>
       <c r="E8" s="3">
-        <v>183000</v>
+        <v>194600</v>
       </c>
       <c r="F8" s="3">
-        <v>164900</v>
+        <v>208700</v>
       </c>
       <c r="G8" s="3">
-        <v>127800</v>
+        <v>181300</v>
       </c>
       <c r="H8" s="3">
-        <v>125300</v>
+        <v>163400</v>
       </c>
       <c r="I8" s="3">
+        <v>126600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K8" s="3">
         <v>108300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>82100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>69200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>93800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>101700</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>97000</v>
+        <v>135200</v>
       </c>
       <c r="E9" s="3">
-        <v>124100</v>
+        <v>99900</v>
       </c>
       <c r="F9" s="3">
-        <v>92400</v>
+        <v>96100</v>
       </c>
       <c r="G9" s="3">
-        <v>60800</v>
+        <v>123000</v>
       </c>
       <c r="H9" s="3">
-        <v>58700</v>
+        <v>91600</v>
       </c>
       <c r="I9" s="3">
+        <v>60300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>58200</v>
+      </c>
+      <c r="K9" s="3">
         <v>51500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>55700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>29900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>52500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>113600</v>
+        <v>108700</v>
       </c>
       <c r="E10" s="3">
-        <v>58900</v>
+        <v>94700</v>
       </c>
       <c r="F10" s="3">
-        <v>72500</v>
+        <v>112600</v>
       </c>
       <c r="G10" s="3">
-        <v>67000</v>
+        <v>58400</v>
       </c>
       <c r="H10" s="3">
-        <v>66600</v>
+        <v>71800</v>
       </c>
       <c r="I10" s="3">
+        <v>66400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K10" s="3">
         <v>56800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>26300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>39300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>41300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,43 +865,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>34400</v>
+        <v>31600</v>
       </c>
       <c r="E12" s="3">
-        <v>29900</v>
+        <v>32300</v>
       </c>
       <c r="F12" s="3">
-        <v>22900</v>
+        <v>34100</v>
       </c>
       <c r="G12" s="3">
-        <v>20300</v>
+        <v>29600</v>
       </c>
       <c r="H12" s="3">
-        <v>17500</v>
+        <v>22600</v>
       </c>
       <c r="I12" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K12" s="3">
         <v>17100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>12900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>14300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>17400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,43 +943,55 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G14" s="3">
         <v>8200</v>
       </c>
-      <c r="E14" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1043,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>418100</v>
+        <v>250700</v>
       </c>
       <c r="E17" s="3">
-        <v>220900</v>
+        <v>231400</v>
       </c>
       <c r="F17" s="3">
-        <v>465500</v>
+        <v>414300</v>
       </c>
       <c r="G17" s="3">
-        <v>157500</v>
+        <v>218900</v>
       </c>
       <c r="H17" s="3">
-        <v>538700</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>10</v>
+        <v>461300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>156100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>533800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="3">
         <v>185000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-207400</v>
+        <v>-6800</v>
       </c>
       <c r="E18" s="3">
-        <v>-37900</v>
+        <v>-36800</v>
       </c>
       <c r="F18" s="3">
-        <v>-300700</v>
+        <v>-205600</v>
       </c>
       <c r="G18" s="3">
-        <v>-29700</v>
+        <v>-37600</v>
       </c>
       <c r="H18" s="3">
-        <v>-413400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>10</v>
+        <v>-298000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-409600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="3">
         <v>-91100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,43 +1142,51 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13400</v>
+        <v>9000</v>
       </c>
       <c r="E20" s="3">
-        <v>12600</v>
+        <v>9400</v>
       </c>
       <c r="F20" s="3">
-        <v>10400</v>
+        <v>13300</v>
       </c>
       <c r="G20" s="3">
+        <v>12500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
-        <v>7100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>10</v>
+      <c r="J20" s="3">
+        <v>7000</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="3">
         <v>6100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1128,26 +1202,32 @@
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="3">
-        <v>-396900</v>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>10</v>
+      <c r="J21" s="3">
+        <v>-393300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3">
         <v>-74100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1163,96 +1243,114 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-194100</v>
+        <v>2200</v>
       </c>
       <c r="E23" s="3">
-        <v>-25400</v>
+        <v>-27400</v>
       </c>
       <c r="F23" s="3">
-        <v>-290300</v>
+        <v>-192300</v>
       </c>
       <c r="G23" s="3">
-        <v>-26700</v>
+        <v>-25100</v>
       </c>
       <c r="H23" s="3">
-        <v>-406300</v>
+        <v>-287700</v>
       </c>
       <c r="I23" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-402600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-48800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-44100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-85800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>600</v>
+      </c>
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1384,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-194700</v>
+        <v>1900</v>
       </c>
       <c r="E26" s="3">
-        <v>-26300</v>
+        <v>-28000</v>
       </c>
       <c r="F26" s="3">
-        <v>-288600</v>
+        <v>-192900</v>
       </c>
       <c r="G26" s="3">
-        <v>-29000</v>
+        <v>-26000</v>
       </c>
       <c r="H26" s="3">
-        <v>-409000</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>10</v>
+        <v>-286000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-405300</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="3">
         <v>-84900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-194700</v>
+        <v>1700</v>
       </c>
       <c r="E27" s="3">
-        <v>-26300</v>
+        <v>-28000</v>
       </c>
       <c r="F27" s="3">
-        <v>-325100</v>
+        <v>-192900</v>
       </c>
       <c r="G27" s="3">
-        <v>-68800</v>
+        <v>-26100</v>
       </c>
       <c r="H27" s="3">
-        <v>-426700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>10</v>
+        <v>-322200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-422900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="3">
         <v>-84900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,16 +1507,22 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1418,16 +1540,22 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1630,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13400</v>
+        <v>-9000</v>
       </c>
       <c r="E32" s="3">
-        <v>-12600</v>
+        <v>-9400</v>
       </c>
       <c r="F32" s="3">
-        <v>-10400</v>
+        <v>-13300</v>
       </c>
       <c r="G32" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>10</v>
+      <c r="J32" s="3">
+        <v>-7000</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="3">
         <v>-6100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-194700</v>
+        <v>1700</v>
       </c>
       <c r="E33" s="3">
-        <v>-26300</v>
+        <v>-28000</v>
       </c>
       <c r="F33" s="3">
-        <v>-325100</v>
+        <v>-192900</v>
       </c>
       <c r="G33" s="3">
-        <v>-68800</v>
+        <v>-26100</v>
       </c>
       <c r="H33" s="3">
-        <v>-426700</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>10</v>
+        <v>-322200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-422900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="3">
         <v>-84500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1753,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-194700</v>
+        <v>1700</v>
       </c>
       <c r="E35" s="3">
-        <v>-26300</v>
+        <v>-28000</v>
       </c>
       <c r="F35" s="3">
-        <v>-325100</v>
+        <v>-192900</v>
       </c>
       <c r="G35" s="3">
-        <v>-68800</v>
+        <v>-26100</v>
       </c>
       <c r="H35" s="3">
-        <v>-426700</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>10</v>
+        <v>-322200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-422900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="3">
         <v>-84500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,28 +1878,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>631300</v>
+        <v>702700</v>
       </c>
       <c r="E41" s="3">
-        <v>545700</v>
+        <v>631400</v>
       </c>
       <c r="F41" s="3">
-        <v>1494400</v>
+        <v>625600</v>
       </c>
       <c r="G41" s="3">
-        <v>1482500</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>10</v>
+        <v>540800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1480900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1469100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>10</v>
@@ -1741,28 +1915,34 @@
       <c r="M41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3188100</v>
+        <v>3098600</v>
       </c>
       <c r="E42" s="3">
-        <v>3399000</v>
+        <v>3053600</v>
       </c>
       <c r="F42" s="3">
-        <v>2456600</v>
+        <v>3159300</v>
       </c>
       <c r="G42" s="3">
-        <v>1286600</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>10</v>
+        <v>3368300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2434400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1275000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
@@ -1776,28 +1956,34 @@
       <c r="M42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>267300</v>
+        <v>343600</v>
       </c>
       <c r="E43" s="3">
-        <v>255300</v>
+        <v>304800</v>
       </c>
       <c r="F43" s="3">
-        <v>244000</v>
+        <v>264900</v>
       </c>
       <c r="G43" s="3">
-        <v>198700</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>10</v>
+        <v>253000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>241800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>196900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>10</v>
@@ -1811,8 +1997,14 @@
       <c r="M43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,28 +2038,34 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>171700</v>
+        <v>215600</v>
       </c>
       <c r="E45" s="3">
-        <v>176000</v>
+        <v>130900</v>
       </c>
       <c r="F45" s="3">
-        <v>146200</v>
+        <v>170200</v>
       </c>
       <c r="G45" s="3">
-        <v>80000</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>10</v>
+        <v>174400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>144900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>79300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>10</v>
@@ -1881,28 +2079,34 @@
       <c r="M45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4258400</v>
+        <v>4360600</v>
       </c>
       <c r="E46" s="3">
-        <v>4376000</v>
+        <v>4120700</v>
       </c>
       <c r="F46" s="3">
-        <v>4341200</v>
+        <v>4220000</v>
       </c>
       <c r="G46" s="3">
-        <v>3047900</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>10</v>
+        <v>4336500</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4302000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>3020400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>10</v>
@@ -1916,28 +2120,34 @@
       <c r="M46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>247300</v>
+        <v>253300</v>
       </c>
       <c r="E47" s="3">
-        <v>213900</v>
+        <v>245400</v>
       </c>
       <c r="F47" s="3">
-        <v>149400</v>
+        <v>245100</v>
       </c>
       <c r="G47" s="3">
-        <v>129000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
+        <v>212000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>148100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>127800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>10</v>
@@ -1951,29 +2161,35 @@
       <c r="M47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15100</v>
+        <v>39200</v>
       </c>
       <c r="E48" s="3">
-        <v>6000</v>
+        <v>32400</v>
       </c>
       <c r="F48" s="3">
-        <v>5600</v>
+        <v>14900</v>
       </c>
       <c r="G48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I48" s="3">
         <v>5700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>10</v>
       </c>
@@ -1986,28 +2202,34 @@
       <c r="M48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>542600</v>
+        <v>533400</v>
       </c>
       <c r="E49" s="3">
-        <v>502600</v>
+        <v>535500</v>
       </c>
       <c r="F49" s="3">
-        <v>491100</v>
+        <v>537700</v>
       </c>
       <c r="G49" s="3">
-        <v>494600</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
+        <v>498100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>486600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>490100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>10</v>
@@ -2021,8 +2243,14 @@
       <c r="M49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,28 +2325,34 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5600</v>
+        <v>8900</v>
       </c>
       <c r="E52" s="3">
-        <v>28800</v>
+        <v>8600</v>
       </c>
       <c r="F52" s="3">
-        <v>94600</v>
+        <v>5500</v>
       </c>
       <c r="G52" s="3">
-        <v>26400</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>10</v>
+        <v>28600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>93700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>26200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>10</v>
@@ -2126,8 +2366,14 @@
       <c r="M52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,28 +2407,34 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5069000</v>
+        <v>5195400</v>
       </c>
       <c r="E54" s="3">
-        <v>5127300</v>
+        <v>4942600</v>
       </c>
       <c r="F54" s="3">
-        <v>5081800</v>
+        <v>5023200</v>
       </c>
       <c r="G54" s="3">
-        <v>3703700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>10</v>
+        <v>5081000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5036000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>3670200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>10</v>
@@ -2196,8 +2448,14 @@
       <c r="M54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,28 +2486,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>10</v>
+      <c r="I57" s="3">
+        <v>3500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>10</v>
@@ -2261,63 +2523,75 @@
       <c r="M57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="F58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>397200</v>
+        <v>360500</v>
       </c>
       <c r="E59" s="3">
-        <v>327000</v>
+        <v>311000</v>
       </c>
       <c r="F59" s="3">
-        <v>283000</v>
+        <v>393600</v>
       </c>
       <c r="G59" s="3">
-        <v>285700</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>10</v>
+        <v>324100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>280400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>283100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>10</v>
@@ -2331,29 +2605,35 @@
       <c r="M59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>402900</v>
+        <v>365600</v>
       </c>
       <c r="E60" s="3">
-        <v>331600</v>
+        <v>317100</v>
       </c>
       <c r="F60" s="3">
+        <v>399200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>328600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>284000</v>
+      </c>
+      <c r="I60" s="3">
         <v>286600</v>
       </c>
-      <c r="G60" s="3">
-        <v>289200</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2366,8 +2646,14 @@
       <c r="M60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,29 +2687,35 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20000</v>
+        <v>27500</v>
       </c>
       <c r="E62" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>19800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>17100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>16500</v>
+      </c>
+      <c r="I62" s="3">
         <v>17300</v>
       </c>
-      <c r="F62" s="3">
-        <v>16700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>17500</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2436,8 +2728,14 @@
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,28 +2851,34 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>433700</v>
+        <v>406900</v>
       </c>
       <c r="E66" s="3">
-        <v>359800</v>
+        <v>357100</v>
       </c>
       <c r="F66" s="3">
-        <v>314100</v>
+        <v>429800</v>
       </c>
       <c r="G66" s="3">
-        <v>306700</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>10</v>
+        <v>356600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>311300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>304000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>10</v>
@@ -2576,8 +2892,14 @@
       <c r="M66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2676,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>4840200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>4796500</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2696,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,28 +3073,34 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2508100</v>
+        <v>-2511800</v>
       </c>
       <c r="E72" s="3">
-        <v>-2313400</v>
+        <v>-2513500</v>
       </c>
       <c r="F72" s="3">
-        <v>-2287100</v>
+        <v>-2485500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1969600</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>10</v>
+        <v>-2292500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-2266500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-1951800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>10</v>
@@ -2766,8 +3114,14 @@
       <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,28 +3237,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4635300</v>
+        <v>4788500</v>
       </c>
       <c r="E76" s="3">
-        <v>4767500</v>
+        <v>4585600</v>
       </c>
       <c r="F76" s="3">
-        <v>4767700</v>
+        <v>4593400</v>
       </c>
       <c r="G76" s="3">
-        <v>-1443300</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>10</v>
+        <v>4724500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>4724700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-1430300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>10</v>
@@ -2906,8 +3278,14 @@
       <c r="M76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3319,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-194700</v>
+        <v>1700</v>
       </c>
       <c r="E81" s="3">
-        <v>-26300</v>
+        <v>-28000</v>
       </c>
       <c r="F81" s="3">
-        <v>-325100</v>
+        <v>-192900</v>
       </c>
       <c r="G81" s="3">
-        <v>-68800</v>
+        <v>-26100</v>
       </c>
       <c r="H81" s="3">
-        <v>-426700</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>10</v>
+        <v>-322200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-422900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N81" s="3">
         <v>-84500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3427,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3060,14 +3458,20 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3669,14 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3270,14 +3704,20 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3731,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3320,14 +3762,20 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3850,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3425,14 +3885,20 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +4072,14 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3615,14 +4107,20 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3650,14 +4148,20 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3685,10 +4189,16 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M102" s="3" t="s">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
@@ -733,25 +733,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>243900</v>
+        <v>232500</v>
       </c>
       <c r="E8" s="3">
-        <v>194600</v>
+        <v>185500</v>
       </c>
       <c r="F8" s="3">
-        <v>208700</v>
+        <v>199000</v>
       </c>
       <c r="G8" s="3">
-        <v>181300</v>
+        <v>172800</v>
       </c>
       <c r="H8" s="3">
-        <v>163400</v>
+        <v>155700</v>
       </c>
       <c r="I8" s="3">
-        <v>126600</v>
+        <v>120700</v>
       </c>
       <c r="J8" s="3">
-        <v>124200</v>
+        <v>118400</v>
       </c>
       <c r="K8" s="3">
         <v>108300</v>
@@ -774,25 +774,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>135200</v>
+        <v>128900</v>
       </c>
       <c r="E9" s="3">
-        <v>99900</v>
+        <v>95200</v>
       </c>
       <c r="F9" s="3">
-        <v>96100</v>
+        <v>91600</v>
       </c>
       <c r="G9" s="3">
-        <v>123000</v>
+        <v>117200</v>
       </c>
       <c r="H9" s="3">
-        <v>91600</v>
+        <v>87300</v>
       </c>
       <c r="I9" s="3">
-        <v>60300</v>
+        <v>57500</v>
       </c>
       <c r="J9" s="3">
-        <v>58200</v>
+        <v>55500</v>
       </c>
       <c r="K9" s="3">
         <v>51500</v>
@@ -815,25 +815,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>108700</v>
+        <v>103600</v>
       </c>
       <c r="E10" s="3">
-        <v>94700</v>
+        <v>90300</v>
       </c>
       <c r="F10" s="3">
-        <v>112600</v>
+        <v>107400</v>
       </c>
       <c r="G10" s="3">
-        <v>58400</v>
+        <v>55600</v>
       </c>
       <c r="H10" s="3">
-        <v>71800</v>
+        <v>68500</v>
       </c>
       <c r="I10" s="3">
-        <v>66400</v>
+        <v>63300</v>
       </c>
       <c r="J10" s="3">
-        <v>66000</v>
+        <v>62900</v>
       </c>
       <c r="K10" s="3">
         <v>56800</v>
@@ -873,25 +873,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>31600</v>
+        <v>30100</v>
       </c>
       <c r="E12" s="3">
-        <v>32300</v>
+        <v>30800</v>
       </c>
       <c r="F12" s="3">
-        <v>34100</v>
+        <v>32500</v>
       </c>
       <c r="G12" s="3">
-        <v>29600</v>
+        <v>28200</v>
       </c>
       <c r="H12" s="3">
-        <v>22600</v>
+        <v>21600</v>
       </c>
       <c r="I12" s="3">
-        <v>20200</v>
+        <v>19200</v>
       </c>
       <c r="J12" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="K12" s="3">
         <v>17100</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="G14" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1051,25 +1051,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>250700</v>
+        <v>238900</v>
       </c>
       <c r="E17" s="3">
-        <v>231400</v>
+        <v>220600</v>
       </c>
       <c r="F17" s="3">
-        <v>414300</v>
+        <v>394900</v>
       </c>
       <c r="G17" s="3">
-        <v>218900</v>
+        <v>208700</v>
       </c>
       <c r="H17" s="3">
-        <v>461300</v>
+        <v>439800</v>
       </c>
       <c r="I17" s="3">
-        <v>156100</v>
+        <v>148800</v>
       </c>
       <c r="J17" s="3">
-        <v>533800</v>
+        <v>508900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>10</v>
@@ -1092,25 +1092,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="E18" s="3">
-        <v>-36800</v>
+        <v>-35100</v>
       </c>
       <c r="F18" s="3">
-        <v>-205600</v>
+        <v>-195900</v>
       </c>
       <c r="G18" s="3">
-        <v>-37600</v>
+        <v>-35800</v>
       </c>
       <c r="H18" s="3">
-        <v>-298000</v>
+        <v>-284000</v>
       </c>
       <c r="I18" s="3">
-        <v>-29500</v>
+        <v>-28100</v>
       </c>
       <c r="J18" s="3">
-        <v>-409600</v>
+        <v>-390500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>10</v>
@@ -1150,25 +1150,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="E20" s="3">
-        <v>9400</v>
+        <v>8900</v>
       </c>
       <c r="F20" s="3">
-        <v>13300</v>
+        <v>12600</v>
       </c>
       <c r="G20" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="H20" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="I20" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J20" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>10</v>
@@ -1209,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="3">
-        <v>-393300</v>
+        <v>-374900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1273,25 +1273,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E23" s="3">
-        <v>-27400</v>
+        <v>-26100</v>
       </c>
       <c r="F23" s="3">
-        <v>-192300</v>
+        <v>-183300</v>
       </c>
       <c r="G23" s="3">
-        <v>-25100</v>
+        <v>-24000</v>
       </c>
       <c r="H23" s="3">
-        <v>-287700</v>
+        <v>-274200</v>
       </c>
       <c r="I23" s="3">
-        <v>-26500</v>
+        <v>-25200</v>
       </c>
       <c r="J23" s="3">
-        <v>-402600</v>
+        <v>-383800</v>
       </c>
       <c r="K23" s="3">
         <v>-48800</v>
@@ -1326,13 +1326,13 @@
         <v>900</v>
       </c>
       <c r="H24" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I24" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J24" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K24" s="3">
         <v>-500</v>
@@ -1396,25 +1396,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E26" s="3">
-        <v>-28000</v>
+        <v>-26700</v>
       </c>
       <c r="F26" s="3">
-        <v>-192900</v>
+        <v>-183900</v>
       </c>
       <c r="G26" s="3">
-        <v>-26000</v>
+        <v>-24800</v>
       </c>
       <c r="H26" s="3">
-        <v>-286000</v>
+        <v>-272600</v>
       </c>
       <c r="I26" s="3">
-        <v>-28800</v>
+        <v>-27400</v>
       </c>
       <c r="J26" s="3">
-        <v>-405300</v>
+        <v>-386400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>10</v>
@@ -1437,25 +1437,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E27" s="3">
-        <v>-28000</v>
+        <v>-26700</v>
       </c>
       <c r="F27" s="3">
-        <v>-192900</v>
+        <v>-183900</v>
       </c>
       <c r="G27" s="3">
-        <v>-26100</v>
+        <v>-24800</v>
       </c>
       <c r="H27" s="3">
-        <v>-322200</v>
+        <v>-307100</v>
       </c>
       <c r="I27" s="3">
-        <v>-68200</v>
+        <v>-65000</v>
       </c>
       <c r="J27" s="3">
-        <v>-422900</v>
+        <v>-403100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>10</v>
@@ -1642,25 +1642,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9000</v>
+        <v>-8600</v>
       </c>
       <c r="E32" s="3">
-        <v>-9400</v>
+        <v>-8900</v>
       </c>
       <c r="F32" s="3">
-        <v>-13300</v>
+        <v>-12600</v>
       </c>
       <c r="G32" s="3">
-        <v>-12500</v>
+        <v>-11900</v>
       </c>
       <c r="H32" s="3">
-        <v>-10300</v>
+        <v>-9800</v>
       </c>
       <c r="I32" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="J32" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>10</v>
@@ -1683,25 +1683,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E33" s="3">
-        <v>-28000</v>
+        <v>-26700</v>
       </c>
       <c r="F33" s="3">
-        <v>-192900</v>
+        <v>-183900</v>
       </c>
       <c r="G33" s="3">
-        <v>-26100</v>
+        <v>-24800</v>
       </c>
       <c r="H33" s="3">
-        <v>-322200</v>
+        <v>-307100</v>
       </c>
       <c r="I33" s="3">
-        <v>-68200</v>
+        <v>-65000</v>
       </c>
       <c r="J33" s="3">
-        <v>-422900</v>
+        <v>-403100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>10</v>
@@ -1765,25 +1765,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E35" s="3">
-        <v>-28000</v>
+        <v>-26700</v>
       </c>
       <c r="F35" s="3">
-        <v>-192900</v>
+        <v>-183900</v>
       </c>
       <c r="G35" s="3">
-        <v>-26100</v>
+        <v>-24800</v>
       </c>
       <c r="H35" s="3">
-        <v>-322200</v>
+        <v>-307100</v>
       </c>
       <c r="I35" s="3">
-        <v>-68200</v>
+        <v>-65000</v>
       </c>
       <c r="J35" s="3">
-        <v>-422900</v>
+        <v>-403100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>10</v>
@@ -1886,22 +1886,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>702700</v>
+        <v>669800</v>
       </c>
       <c r="E41" s="3">
-        <v>631400</v>
+        <v>601900</v>
       </c>
       <c r="F41" s="3">
-        <v>625600</v>
+        <v>596400</v>
       </c>
       <c r="G41" s="3">
-        <v>540800</v>
+        <v>515500</v>
       </c>
       <c r="H41" s="3">
-        <v>1480900</v>
+        <v>1411600</v>
       </c>
       <c r="I41" s="3">
-        <v>1469100</v>
+        <v>1400400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>10</v>
@@ -1927,22 +1927,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3098600</v>
+        <v>2953700</v>
       </c>
       <c r="E42" s="3">
-        <v>3053600</v>
+        <v>2910800</v>
       </c>
       <c r="F42" s="3">
-        <v>3159300</v>
+        <v>3011500</v>
       </c>
       <c r="G42" s="3">
-        <v>3368300</v>
+        <v>3210800</v>
       </c>
       <c r="H42" s="3">
-        <v>2434400</v>
+        <v>2320600</v>
       </c>
       <c r="I42" s="3">
-        <v>1275000</v>
+        <v>1215400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
@@ -1968,22 +1968,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>343600</v>
+        <v>327600</v>
       </c>
       <c r="E43" s="3">
-        <v>304800</v>
+        <v>290600</v>
       </c>
       <c r="F43" s="3">
-        <v>264900</v>
+        <v>252500</v>
       </c>
       <c r="G43" s="3">
-        <v>253000</v>
+        <v>241200</v>
       </c>
       <c r="H43" s="3">
-        <v>241800</v>
+        <v>230500</v>
       </c>
       <c r="I43" s="3">
-        <v>196900</v>
+        <v>187700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>10</v>
@@ -2050,22 +2050,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>215600</v>
+        <v>205600</v>
       </c>
       <c r="E45" s="3">
-        <v>130900</v>
+        <v>124700</v>
       </c>
       <c r="F45" s="3">
-        <v>170200</v>
+        <v>162200</v>
       </c>
       <c r="G45" s="3">
-        <v>174400</v>
+        <v>166200</v>
       </c>
       <c r="H45" s="3">
-        <v>144900</v>
+        <v>138100</v>
       </c>
       <c r="I45" s="3">
-        <v>79300</v>
+        <v>75600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>10</v>
@@ -2091,22 +2091,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4360600</v>
+        <v>4156700</v>
       </c>
       <c r="E46" s="3">
-        <v>4120700</v>
+        <v>3928000</v>
       </c>
       <c r="F46" s="3">
-        <v>4220000</v>
+        <v>4022600</v>
       </c>
       <c r="G46" s="3">
-        <v>4336500</v>
+        <v>4133700</v>
       </c>
       <c r="H46" s="3">
-        <v>4302000</v>
+        <v>4100800</v>
       </c>
       <c r="I46" s="3">
-        <v>3020400</v>
+        <v>2879100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>10</v>
@@ -2132,22 +2132,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>253300</v>
+        <v>241500</v>
       </c>
       <c r="E47" s="3">
-        <v>245400</v>
+        <v>233900</v>
       </c>
       <c r="F47" s="3">
-        <v>245100</v>
+        <v>233600</v>
       </c>
       <c r="G47" s="3">
-        <v>212000</v>
+        <v>202100</v>
       </c>
       <c r="H47" s="3">
-        <v>148100</v>
+        <v>141200</v>
       </c>
       <c r="I47" s="3">
-        <v>127800</v>
+        <v>121800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>10</v>
@@ -2173,22 +2173,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39200</v>
+        <v>37300</v>
       </c>
       <c r="E48" s="3">
-        <v>32400</v>
+        <v>30900</v>
       </c>
       <c r="F48" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="G48" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="H48" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="I48" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>10</v>
@@ -2214,22 +2214,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>533400</v>
+        <v>508500</v>
       </c>
       <c r="E49" s="3">
-        <v>535500</v>
+        <v>510400</v>
       </c>
       <c r="F49" s="3">
-        <v>537700</v>
+        <v>512500</v>
       </c>
       <c r="G49" s="3">
-        <v>498100</v>
+        <v>474800</v>
       </c>
       <c r="H49" s="3">
-        <v>486600</v>
+        <v>463900</v>
       </c>
       <c r="I49" s="3">
-        <v>490100</v>
+        <v>467200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>10</v>
@@ -2337,22 +2337,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="E52" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="F52" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="G52" s="3">
-        <v>28600</v>
+        <v>27200</v>
       </c>
       <c r="H52" s="3">
-        <v>93700</v>
+        <v>89300</v>
       </c>
       <c r="I52" s="3">
-        <v>26200</v>
+        <v>25000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>10</v>
@@ -2419,22 +2419,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5195400</v>
+        <v>4952400</v>
       </c>
       <c r="E54" s="3">
-        <v>4942600</v>
+        <v>4711500</v>
       </c>
       <c r="F54" s="3">
-        <v>5023200</v>
+        <v>4788300</v>
       </c>
       <c r="G54" s="3">
-        <v>5081000</v>
+        <v>4843400</v>
       </c>
       <c r="H54" s="3">
-        <v>5036000</v>
+        <v>4800400</v>
       </c>
       <c r="I54" s="3">
-        <v>3670200</v>
+        <v>3498600</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>10</v>
@@ -2494,22 +2494,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="E57" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="F57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G57" s="3">
         <v>4300</v>
       </c>
-      <c r="G57" s="3">
-        <v>4600</v>
-      </c>
       <c r="H57" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I57" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>10</v>
@@ -2576,22 +2576,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>360500</v>
+        <v>343600</v>
       </c>
       <c r="E59" s="3">
-        <v>311000</v>
+        <v>296500</v>
       </c>
       <c r="F59" s="3">
-        <v>393600</v>
+        <v>375200</v>
       </c>
       <c r="G59" s="3">
-        <v>324100</v>
+        <v>308900</v>
       </c>
       <c r="H59" s="3">
-        <v>280400</v>
+        <v>267300</v>
       </c>
       <c r="I59" s="3">
-        <v>283100</v>
+        <v>269800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>10</v>
@@ -2617,22 +2617,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>365600</v>
+        <v>348500</v>
       </c>
       <c r="E60" s="3">
-        <v>317100</v>
+        <v>302300</v>
       </c>
       <c r="F60" s="3">
-        <v>399200</v>
+        <v>380500</v>
       </c>
       <c r="G60" s="3">
-        <v>328600</v>
+        <v>313300</v>
       </c>
       <c r="H60" s="3">
-        <v>284000</v>
+        <v>270700</v>
       </c>
       <c r="I60" s="3">
-        <v>286600</v>
+        <v>273200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>10</v>
@@ -2699,22 +2699,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27500</v>
+        <v>26200</v>
       </c>
       <c r="E62" s="3">
-        <v>29300</v>
+        <v>27900</v>
       </c>
       <c r="F62" s="3">
-        <v>19800</v>
+        <v>18900</v>
       </c>
       <c r="G62" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="H62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I62" s="3">
         <v>16500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>17300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
@@ -2863,22 +2863,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>406900</v>
+        <v>387900</v>
       </c>
       <c r="E66" s="3">
-        <v>357100</v>
+        <v>340400</v>
       </c>
       <c r="F66" s="3">
-        <v>429800</v>
+        <v>409700</v>
       </c>
       <c r="G66" s="3">
-        <v>356600</v>
+        <v>339900</v>
       </c>
       <c r="H66" s="3">
-        <v>311300</v>
+        <v>296700</v>
       </c>
       <c r="I66" s="3">
-        <v>304000</v>
+        <v>289800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>10</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>4796500</v>
+        <v>4572200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3085,22 +3085,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2511800</v>
+        <v>-2394400</v>
       </c>
       <c r="E72" s="3">
-        <v>-2513500</v>
+        <v>-2395900</v>
       </c>
       <c r="F72" s="3">
-        <v>-2485500</v>
+        <v>-2369200</v>
       </c>
       <c r="G72" s="3">
-        <v>-2292500</v>
+        <v>-2185300</v>
       </c>
       <c r="H72" s="3">
-        <v>-2266500</v>
+        <v>-2160500</v>
       </c>
       <c r="I72" s="3">
-        <v>-1951800</v>
+        <v>-1860500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>10</v>
@@ -3249,22 +3249,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4788500</v>
+        <v>4564500</v>
       </c>
       <c r="E76" s="3">
-        <v>4585600</v>
+        <v>4371100</v>
       </c>
       <c r="F76" s="3">
-        <v>4593400</v>
+        <v>4378600</v>
       </c>
       <c r="G76" s="3">
-        <v>4724500</v>
+        <v>4503500</v>
       </c>
       <c r="H76" s="3">
-        <v>4724700</v>
+        <v>4503700</v>
       </c>
       <c r="I76" s="3">
-        <v>-1430300</v>
+        <v>-1363400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>10</v>
@@ -3377,25 +3377,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E81" s="3">
-        <v>-28000</v>
+        <v>-26700</v>
       </c>
       <c r="F81" s="3">
-        <v>-192900</v>
+        <v>-183900</v>
       </c>
       <c r="G81" s="3">
-        <v>-26100</v>
+        <v>-24800</v>
       </c>
       <c r="H81" s="3">
-        <v>-322200</v>
+        <v>-307100</v>
       </c>
       <c r="I81" s="3">
-        <v>-68200</v>
+        <v>-65000</v>
       </c>
       <c r="J81" s="3">
-        <v>-422900</v>
+        <v>-403100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>10</v>

--- a/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>YMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,218 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>232500</v>
+        <v>276100</v>
       </c>
       <c r="E8" s="3">
-        <v>185500</v>
+        <v>259800</v>
       </c>
       <c r="F8" s="3">
-        <v>199000</v>
+        <v>239900</v>
       </c>
       <c r="G8" s="3">
-        <v>172800</v>
+        <v>191400</v>
       </c>
       <c r="H8" s="3">
-        <v>155700</v>
+        <v>205300</v>
       </c>
       <c r="I8" s="3">
+        <v>178300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>160700</v>
+      </c>
+      <c r="K8" s="3">
         <v>120700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>118400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>108300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>82100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>69200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>93800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>101700</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>128900</v>
+        <v>136700</v>
       </c>
       <c r="E9" s="3">
-        <v>95200</v>
+        <v>136900</v>
       </c>
       <c r="F9" s="3">
-        <v>91600</v>
+        <v>133000</v>
       </c>
       <c r="G9" s="3">
-        <v>117200</v>
+        <v>98200</v>
       </c>
       <c r="H9" s="3">
-        <v>87300</v>
+        <v>94500</v>
       </c>
       <c r="I9" s="3">
+        <v>120900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K9" s="3">
         <v>57500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>55500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>51500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>55700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>29900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>52500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>103600</v>
+        <v>139400</v>
       </c>
       <c r="E10" s="3">
-        <v>90300</v>
+        <v>122900</v>
       </c>
       <c r="F10" s="3">
-        <v>107400</v>
+        <v>106900</v>
       </c>
       <c r="G10" s="3">
-        <v>55600</v>
+        <v>93200</v>
       </c>
       <c r="H10" s="3">
-        <v>68500</v>
+        <v>110800</v>
       </c>
       <c r="I10" s="3">
+        <v>57400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K10" s="3">
         <v>63300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>62900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>56800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>26300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>39300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>41300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +892,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>30100</v>
+        <v>35900</v>
       </c>
       <c r="E12" s="3">
-        <v>30800</v>
+        <v>32500</v>
       </c>
       <c r="F12" s="3">
-        <v>32500</v>
+        <v>31100</v>
       </c>
       <c r="G12" s="3">
-        <v>28200</v>
+        <v>31700</v>
       </c>
       <c r="H12" s="3">
-        <v>21600</v>
+        <v>33600</v>
       </c>
       <c r="I12" s="3">
+        <v>29100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K12" s="3">
         <v>19200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>16600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>17100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>12900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>14300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>17400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,49 +982,61 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>7800</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
-        <v>7800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1096,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>238900</v>
+        <v>276900</v>
       </c>
       <c r="E17" s="3">
-        <v>220600</v>
+        <v>239400</v>
       </c>
       <c r="F17" s="3">
-        <v>394900</v>
+        <v>246500</v>
       </c>
       <c r="G17" s="3">
-        <v>208700</v>
+        <v>227600</v>
       </c>
       <c r="H17" s="3">
-        <v>439800</v>
+        <v>407500</v>
       </c>
       <c r="I17" s="3">
+        <v>215300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>453700</v>
+      </c>
+      <c r="K17" s="3">
         <v>148800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>508900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="3">
         <v>185000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6500</v>
+        <v>-800</v>
       </c>
       <c r="E18" s="3">
-        <v>-35100</v>
+        <v>20400</v>
       </c>
       <c r="F18" s="3">
-        <v>-195900</v>
+        <v>-6700</v>
       </c>
       <c r="G18" s="3">
-        <v>-35800</v>
+        <v>-36200</v>
       </c>
       <c r="H18" s="3">
-        <v>-284000</v>
+        <v>-202200</v>
       </c>
       <c r="I18" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-293000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-28100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-390500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="3">
         <v>-91100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,63 +1209,71 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8600</v>
+        <v>30900</v>
       </c>
       <c r="E20" s="3">
+        <v>47200</v>
+      </c>
+      <c r="F20" s="3">
         <v>8900</v>
       </c>
-      <c r="F20" s="3">
-        <v>12600</v>
-      </c>
       <c r="G20" s="3">
-        <v>11900</v>
+        <v>9200</v>
       </c>
       <c r="H20" s="3">
-        <v>9800</v>
+        <v>13000</v>
       </c>
       <c r="I20" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="3">
         <v>6100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
+      <c r="E21" s="3">
+        <v>67600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-24900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
@@ -1208,26 +1281,32 @@
       <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3">
         <v>-374900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="3">
         <v>-74100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1249,108 +1328,126 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2100</v>
+        <v>30100</v>
       </c>
       <c r="E23" s="3">
-        <v>-26100</v>
+        <v>67600</v>
       </c>
       <c r="F23" s="3">
-        <v>-183300</v>
+        <v>2200</v>
       </c>
       <c r="G23" s="3">
-        <v>-24000</v>
+        <v>-27000</v>
       </c>
       <c r="H23" s="3">
-        <v>-274200</v>
+        <v>-189100</v>
       </c>
       <c r="I23" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-282900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-25200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-383800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-48800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-44100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-10200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-85800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>56800</v>
+      </c>
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-183900</v>
-      </c>
       <c r="G26" s="3">
-        <v>-24800</v>
+        <v>-27600</v>
       </c>
       <c r="H26" s="3">
-        <v>-272600</v>
+        <v>-189700</v>
       </c>
       <c r="I26" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-281200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-27400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-386400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="3">
         <v>-84900</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>56500</v>
+      </c>
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-183900</v>
-      </c>
       <c r="G27" s="3">
-        <v>-24800</v>
+        <v>-27600</v>
       </c>
       <c r="H27" s="3">
-        <v>-307100</v>
+        <v>-189700</v>
       </c>
       <c r="I27" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-316900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-65000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-403100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="3">
         <v>-84900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1524,11 +1645,11 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1546,16 +1667,22 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1769,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8600</v>
+        <v>-30900</v>
       </c>
       <c r="E32" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8900</v>
       </c>
-      <c r="F32" s="3">
-        <v>-12600</v>
-      </c>
       <c r="G32" s="3">
-        <v>-11900</v>
+        <v>-9200</v>
       </c>
       <c r="H32" s="3">
-        <v>-9800</v>
+        <v>-13000</v>
       </c>
       <c r="I32" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="3">
         <v>-6100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>56500</v>
+      </c>
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-183900</v>
-      </c>
       <c r="G33" s="3">
-        <v>-24800</v>
+        <v>-27600</v>
       </c>
       <c r="H33" s="3">
-        <v>-307100</v>
+        <v>-189700</v>
       </c>
       <c r="I33" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-316900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-65000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-403100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="3">
         <v>-84500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>56500</v>
+      </c>
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-183900</v>
-      </c>
       <c r="G35" s="3">
-        <v>-24800</v>
+        <v>-27600</v>
       </c>
       <c r="H35" s="3">
-        <v>-307100</v>
+        <v>-189700</v>
       </c>
       <c r="I35" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-316900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-65000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-403100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="3">
         <v>-84500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,35 +2051,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>669800</v>
+        <v>737800</v>
       </c>
       <c r="E41" s="3">
-        <v>601900</v>
+        <v>711700</v>
       </c>
       <c r="F41" s="3">
-        <v>596400</v>
+        <v>691100</v>
       </c>
       <c r="G41" s="3">
-        <v>515500</v>
+        <v>621000</v>
       </c>
       <c r="H41" s="3">
-        <v>1411600</v>
+        <v>615300</v>
       </c>
       <c r="I41" s="3">
+        <v>531900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1456400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1400400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1921,35 +2094,41 @@
       <c r="O41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2953700</v>
+        <v>3028500</v>
       </c>
       <c r="E42" s="3">
-        <v>2910800</v>
+        <v>3123000</v>
       </c>
       <c r="F42" s="3">
-        <v>3011500</v>
+        <v>3047500</v>
       </c>
       <c r="G42" s="3">
-        <v>3210800</v>
+        <v>3003200</v>
       </c>
       <c r="H42" s="3">
-        <v>2320600</v>
+        <v>3107200</v>
       </c>
       <c r="I42" s="3">
+        <v>3312700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2394300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1215400</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
@@ -1962,35 +2141,41 @@
       <c r="O42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>327600</v>
+        <v>382200</v>
       </c>
       <c r="E43" s="3">
-        <v>290600</v>
+        <v>392200</v>
       </c>
       <c r="F43" s="3">
-        <v>252500</v>
+        <v>338000</v>
       </c>
       <c r="G43" s="3">
-        <v>241200</v>
+        <v>299800</v>
       </c>
       <c r="H43" s="3">
-        <v>230500</v>
+        <v>260500</v>
       </c>
       <c r="I43" s="3">
+        <v>248800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>237800</v>
+      </c>
+      <c r="K43" s="3">
         <v>187700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2003,8 +2188,14 @@
       <c r="O43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,35 +2235,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>205600</v>
+        <v>304200</v>
       </c>
       <c r="E45" s="3">
-        <v>124700</v>
+        <v>218900</v>
       </c>
       <c r="F45" s="3">
-        <v>162200</v>
+        <v>212100</v>
       </c>
       <c r="G45" s="3">
-        <v>166200</v>
+        <v>128700</v>
       </c>
       <c r="H45" s="3">
-        <v>138100</v>
+        <v>167400</v>
       </c>
       <c r="I45" s="3">
+        <v>171500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K45" s="3">
         <v>75600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2085,35 +2282,41 @@
       <c r="O45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4156700</v>
+        <v>4452800</v>
       </c>
       <c r="E46" s="3">
-        <v>3928000</v>
+        <v>4445700</v>
       </c>
       <c r="F46" s="3">
-        <v>4022600</v>
+        <v>4288600</v>
       </c>
       <c r="G46" s="3">
-        <v>4133700</v>
+        <v>4052700</v>
       </c>
       <c r="H46" s="3">
-        <v>4100800</v>
+        <v>4150400</v>
       </c>
       <c r="I46" s="3">
+        <v>4264900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4231000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2879100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2126,35 +2329,41 @@
       <c r="O46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>241500</v>
+        <v>254800</v>
       </c>
       <c r="E47" s="3">
-        <v>233900</v>
+        <v>257900</v>
       </c>
       <c r="F47" s="3">
-        <v>233600</v>
+        <v>249100</v>
       </c>
       <c r="G47" s="3">
-        <v>202100</v>
+        <v>241300</v>
       </c>
       <c r="H47" s="3">
-        <v>141200</v>
+        <v>241000</v>
       </c>
       <c r="I47" s="3">
+        <v>208500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>145600</v>
+      </c>
+      <c r="K47" s="3">
         <v>121800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
@@ -2167,34 +2376,40 @@
       <c r="O47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37300</v>
+        <v>34600</v>
       </c>
       <c r="E48" s="3">
-        <v>30900</v>
+        <v>37900</v>
       </c>
       <c r="F48" s="3">
-        <v>14200</v>
+        <v>38500</v>
       </c>
       <c r="G48" s="3">
-        <v>5600</v>
+        <v>31900</v>
       </c>
       <c r="H48" s="3">
-        <v>5300</v>
+        <v>14700</v>
       </c>
       <c r="I48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J48" s="3">
         <v>5400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>10</v>
+      <c r="K48" s="3">
+        <v>5400</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>10</v>
@@ -2208,35 +2423,41 @@
       <c r="O48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>508500</v>
+        <v>520900</v>
       </c>
       <c r="E49" s="3">
-        <v>510400</v>
+        <v>523100</v>
       </c>
       <c r="F49" s="3">
-        <v>512500</v>
+        <v>524600</v>
       </c>
       <c r="G49" s="3">
-        <v>474800</v>
+        <v>526600</v>
       </c>
       <c r="H49" s="3">
-        <v>463900</v>
+        <v>528800</v>
       </c>
       <c r="I49" s="3">
+        <v>489900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>478600</v>
+      </c>
+      <c r="K49" s="3">
         <v>467200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,35 +2564,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G52" s="3">
         <v>8500</v>
       </c>
-      <c r="E52" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>27200</v>
-      </c>
       <c r="H52" s="3">
-        <v>89300</v>
+        <v>5400</v>
       </c>
       <c r="I52" s="3">
+        <v>28100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>92200</v>
+      </c>
+      <c r="K52" s="3">
         <v>25000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2658,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4952400</v>
+        <v>5270300</v>
       </c>
       <c r="E54" s="3">
-        <v>4711500</v>
+        <v>5275500</v>
       </c>
       <c r="F54" s="3">
-        <v>4788300</v>
+        <v>5109700</v>
       </c>
       <c r="G54" s="3">
-        <v>4843400</v>
+        <v>4861100</v>
       </c>
       <c r="H54" s="3">
-        <v>4800400</v>
+        <v>4940300</v>
       </c>
       <c r="I54" s="3">
+        <v>4997200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4952900</v>
+      </c>
+      <c r="K54" s="3">
         <v>3498600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2454,8 +2705,14 @@
       <c r="O54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,35 +2747,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2529,76 +2790,88 @@
       <c r="O57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>10</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>343600</v>
+        <v>388300</v>
       </c>
       <c r="E59" s="3">
-        <v>296500</v>
+        <v>385400</v>
       </c>
       <c r="F59" s="3">
-        <v>375200</v>
+        <v>354600</v>
       </c>
       <c r="G59" s="3">
-        <v>308900</v>
+        <v>305900</v>
       </c>
       <c r="H59" s="3">
-        <v>267300</v>
+        <v>387100</v>
       </c>
       <c r="I59" s="3">
+        <v>318700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>275800</v>
+      </c>
+      <c r="K59" s="3">
         <v>269800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2611,35 +2884,41 @@
       <c r="O59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>348500</v>
+        <v>392300</v>
       </c>
       <c r="E60" s="3">
-        <v>302300</v>
+        <v>388800</v>
       </c>
       <c r="F60" s="3">
-        <v>380500</v>
+        <v>359600</v>
       </c>
       <c r="G60" s="3">
-        <v>313300</v>
+        <v>311900</v>
       </c>
       <c r="H60" s="3">
-        <v>270700</v>
+        <v>392600</v>
       </c>
       <c r="I60" s="3">
+        <v>323200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>279300</v>
+      </c>
+      <c r="K60" s="3">
         <v>273200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2652,8 +2931,14 @@
       <c r="O60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,35 +2978,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26200</v>
+        <v>22600</v>
       </c>
       <c r="E62" s="3">
-        <v>27900</v>
+        <v>25400</v>
       </c>
       <c r="F62" s="3">
-        <v>18900</v>
+        <v>27100</v>
       </c>
       <c r="G62" s="3">
+        <v>28800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J62" s="3">
         <v>16300</v>
       </c>
-      <c r="H62" s="3">
-        <v>15800</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>16500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2734,8 +3025,14 @@
       <c r="O62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,35 +3166,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>387900</v>
+        <v>436500</v>
       </c>
       <c r="E66" s="3">
-        <v>340400</v>
+        <v>435500</v>
       </c>
       <c r="F66" s="3">
-        <v>409700</v>
+        <v>400200</v>
       </c>
       <c r="G66" s="3">
-        <v>339900</v>
+        <v>351200</v>
       </c>
       <c r="H66" s="3">
-        <v>296700</v>
+        <v>422700</v>
       </c>
       <c r="I66" s="3">
+        <v>350700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>306100</v>
+      </c>
+      <c r="K66" s="3">
         <v>289800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2898,8 +3213,14 @@
       <c r="O66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3018,14 +3353,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>4572200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,35 +3420,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2394400</v>
+        <v>-2386000</v>
       </c>
       <c r="E72" s="3">
-        <v>-2395900</v>
+        <v>-2413900</v>
       </c>
       <c r="F72" s="3">
-        <v>-2369200</v>
+        <v>-2470400</v>
       </c>
       <c r="G72" s="3">
-        <v>-2185300</v>
+        <v>-2472000</v>
       </c>
       <c r="H72" s="3">
-        <v>-2160500</v>
+        <v>-2444400</v>
       </c>
       <c r="I72" s="3">
+        <v>-2254700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-2229100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1860500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3120,8 +3467,14 @@
       <c r="O72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,35 +3608,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4564500</v>
+        <v>4833900</v>
       </c>
       <c r="E76" s="3">
-        <v>4371100</v>
+        <v>4840000</v>
       </c>
       <c r="F76" s="3">
-        <v>4378600</v>
+        <v>4709500</v>
       </c>
       <c r="G76" s="3">
-        <v>4503500</v>
+        <v>4509900</v>
       </c>
       <c r="H76" s="3">
-        <v>4503700</v>
+        <v>4517600</v>
       </c>
       <c r="I76" s="3">
+        <v>4646500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4646700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1363400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3284,8 +3655,14 @@
       <c r="O76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>56500</v>
+      </c>
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-183900</v>
-      </c>
       <c r="G81" s="3">
-        <v>-24800</v>
+        <v>-27600</v>
       </c>
       <c r="H81" s="3">
-        <v>-307100</v>
+        <v>-189700</v>
       </c>
       <c r="I81" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-316900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-65000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-403100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P81" s="3">
         <v>-84500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3464,14 +3861,20 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,31 +4102,37 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>57200</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>13800</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3710,14 +4143,20 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4172,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3768,14 +4209,20 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4309,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3891,14 +4350,20 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4563,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4113,14 +4604,20 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4154,14 +4651,20 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4195,10 +4698,16 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O102" s="3" t="s">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>YMM</t>
   </si>
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>276100</v>
+        <v>273300</v>
       </c>
       <c r="E8" s="3">
-        <v>259800</v>
+        <v>257100</v>
       </c>
       <c r="F8" s="3">
-        <v>239900</v>
+        <v>237400</v>
       </c>
       <c r="G8" s="3">
-        <v>191400</v>
+        <v>189400</v>
       </c>
       <c r="H8" s="3">
-        <v>205300</v>
+        <v>203200</v>
       </c>
       <c r="I8" s="3">
-        <v>178300</v>
+        <v>176500</v>
       </c>
       <c r="J8" s="3">
-        <v>160700</v>
+        <v>159000</v>
       </c>
       <c r="K8" s="3">
         <v>120700</v>
@@ -787,25 +787,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>136700</v>
+        <v>135300</v>
       </c>
       <c r="E9" s="3">
-        <v>136900</v>
+        <v>135500</v>
       </c>
       <c r="F9" s="3">
-        <v>133000</v>
+        <v>131600</v>
       </c>
       <c r="G9" s="3">
-        <v>98200</v>
+        <v>97200</v>
       </c>
       <c r="H9" s="3">
-        <v>94500</v>
+        <v>93600</v>
       </c>
       <c r="I9" s="3">
-        <v>120900</v>
+        <v>119700</v>
       </c>
       <c r="J9" s="3">
-        <v>90000</v>
+        <v>89100</v>
       </c>
       <c r="K9" s="3">
         <v>57500</v>
@@ -834,25 +834,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>139400</v>
+        <v>138000</v>
       </c>
       <c r="E10" s="3">
-        <v>122900</v>
+        <v>121600</v>
       </c>
       <c r="F10" s="3">
-        <v>106900</v>
+        <v>105800</v>
       </c>
       <c r="G10" s="3">
-        <v>93200</v>
+        <v>92200</v>
       </c>
       <c r="H10" s="3">
-        <v>110800</v>
+        <v>109600</v>
       </c>
       <c r="I10" s="3">
-        <v>57400</v>
+        <v>56800</v>
       </c>
       <c r="J10" s="3">
-        <v>70600</v>
+        <v>69900</v>
       </c>
       <c r="K10" s="3">
         <v>63300</v>
@@ -900,25 +900,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>35900</v>
+        <v>35600</v>
       </c>
       <c r="E12" s="3">
-        <v>32500</v>
+        <v>32200</v>
       </c>
       <c r="F12" s="3">
-        <v>31100</v>
+        <v>30800</v>
       </c>
       <c r="G12" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="H12" s="3">
-        <v>33600</v>
+        <v>33200</v>
       </c>
       <c r="I12" s="3">
-        <v>29100</v>
+        <v>28800</v>
       </c>
       <c r="J12" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="K12" s="3">
         <v>19200</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="I14" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1104,25 +1104,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>276900</v>
+        <v>274000</v>
       </c>
       <c r="E17" s="3">
-        <v>239400</v>
+        <v>236900</v>
       </c>
       <c r="F17" s="3">
-        <v>246500</v>
+        <v>244000</v>
       </c>
       <c r="G17" s="3">
-        <v>227600</v>
+        <v>225200</v>
       </c>
       <c r="H17" s="3">
-        <v>407500</v>
+        <v>403300</v>
       </c>
       <c r="I17" s="3">
-        <v>215300</v>
+        <v>213100</v>
       </c>
       <c r="J17" s="3">
-        <v>453700</v>
+        <v>449100</v>
       </c>
       <c r="K17" s="3">
         <v>148800</v>
@@ -1151,25 +1151,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E18" s="3">
-        <v>20400</v>
+        <v>20100</v>
       </c>
       <c r="F18" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="G18" s="3">
-        <v>-36200</v>
+        <v>-35800</v>
       </c>
       <c r="H18" s="3">
-        <v>-202200</v>
+        <v>-200100</v>
       </c>
       <c r="I18" s="3">
-        <v>-37000</v>
+        <v>-36600</v>
       </c>
       <c r="J18" s="3">
-        <v>-293000</v>
+        <v>-290000</v>
       </c>
       <c r="K18" s="3">
         <v>-28100</v>
@@ -1217,25 +1217,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>30900</v>
+        <v>30600</v>
       </c>
       <c r="E20" s="3">
-        <v>47200</v>
+        <v>46800</v>
       </c>
       <c r="F20" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="G20" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="H20" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="I20" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="J20" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="K20" s="3">
         <v>2900</v>
@@ -1263,17 +1263,17 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>30600</v>
       </c>
       <c r="E21" s="3">
-        <v>67600</v>
+        <v>66900</v>
       </c>
       <c r="F21" s="3">
-        <v>4200</v>
+        <v>2200</v>
       </c>
       <c r="G21" s="3">
-        <v>-24900</v>
+        <v>-24700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
@@ -1358,25 +1358,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30100</v>
+        <v>29800</v>
       </c>
       <c r="E23" s="3">
-        <v>67600</v>
+        <v>66900</v>
       </c>
       <c r="F23" s="3">
         <v>2200</v>
       </c>
       <c r="G23" s="3">
-        <v>-27000</v>
+        <v>-26700</v>
       </c>
       <c r="H23" s="3">
-        <v>-189100</v>
+        <v>-187200</v>
       </c>
       <c r="I23" s="3">
-        <v>-24700</v>
+        <v>-24500</v>
       </c>
       <c r="J23" s="3">
-        <v>-282900</v>
+        <v>-280000</v>
       </c>
       <c r="K23" s="3">
         <v>-25200</v>
@@ -1408,7 +1408,7 @@
         <v>2000</v>
       </c>
       <c r="E24" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
@@ -1499,25 +1499,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28100</v>
+        <v>27800</v>
       </c>
       <c r="E26" s="3">
-        <v>56800</v>
+        <v>56200</v>
       </c>
       <c r="F26" s="3">
         <v>1800</v>
       </c>
       <c r="G26" s="3">
-        <v>-27600</v>
+        <v>-27300</v>
       </c>
       <c r="H26" s="3">
-        <v>-189700</v>
+        <v>-187800</v>
       </c>
       <c r="I26" s="3">
-        <v>-25600</v>
+        <v>-25300</v>
       </c>
       <c r="J26" s="3">
-        <v>-281200</v>
+        <v>-278400</v>
       </c>
       <c r="K26" s="3">
         <v>-27400</v>
@@ -1546,25 +1546,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27800</v>
+        <v>27600</v>
       </c>
       <c r="E27" s="3">
-        <v>56500</v>
+        <v>55900</v>
       </c>
       <c r="F27" s="3">
         <v>1600</v>
       </c>
       <c r="G27" s="3">
-        <v>-27600</v>
+        <v>-27300</v>
       </c>
       <c r="H27" s="3">
-        <v>-189700</v>
+        <v>-187800</v>
       </c>
       <c r="I27" s="3">
-        <v>-25600</v>
+        <v>-25400</v>
       </c>
       <c r="J27" s="3">
-        <v>-316900</v>
+        <v>-313600</v>
       </c>
       <c r="K27" s="3">
         <v>-65000</v>
@@ -1639,8 +1639,8 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
@@ -1781,25 +1781,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-30900</v>
+        <v>-30600</v>
       </c>
       <c r="E32" s="3">
-        <v>-47200</v>
+        <v>-46800</v>
       </c>
       <c r="F32" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="G32" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="H32" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="I32" s="3">
-        <v>-12300</v>
+        <v>-12100</v>
       </c>
       <c r="J32" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="K32" s="3">
         <v>-2900</v>
@@ -1828,25 +1828,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27800</v>
+        <v>27600</v>
       </c>
       <c r="E33" s="3">
-        <v>56500</v>
+        <v>55900</v>
       </c>
       <c r="F33" s="3">
         <v>1600</v>
       </c>
       <c r="G33" s="3">
-        <v>-27600</v>
+        <v>-27300</v>
       </c>
       <c r="H33" s="3">
-        <v>-189700</v>
+        <v>-187800</v>
       </c>
       <c r="I33" s="3">
-        <v>-25600</v>
+        <v>-25400</v>
       </c>
       <c r="J33" s="3">
-        <v>-316900</v>
+        <v>-313600</v>
       </c>
       <c r="K33" s="3">
         <v>-65000</v>
@@ -1922,25 +1922,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27800</v>
+        <v>27600</v>
       </c>
       <c r="E35" s="3">
-        <v>56500</v>
+        <v>55900</v>
       </c>
       <c r="F35" s="3">
         <v>1600</v>
       </c>
       <c r="G35" s="3">
-        <v>-27600</v>
+        <v>-27300</v>
       </c>
       <c r="H35" s="3">
-        <v>-189700</v>
+        <v>-187800</v>
       </c>
       <c r="I35" s="3">
-        <v>-25600</v>
+        <v>-25400</v>
       </c>
       <c r="J35" s="3">
-        <v>-316900</v>
+        <v>-313600</v>
       </c>
       <c r="K35" s="3">
         <v>-65000</v>
@@ -2059,25 +2059,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>737800</v>
+        <v>730300</v>
       </c>
       <c r="E41" s="3">
-        <v>711700</v>
+        <v>704400</v>
       </c>
       <c r="F41" s="3">
-        <v>691100</v>
+        <v>684000</v>
       </c>
       <c r="G41" s="3">
-        <v>621000</v>
+        <v>614700</v>
       </c>
       <c r="H41" s="3">
-        <v>615300</v>
+        <v>609000</v>
       </c>
       <c r="I41" s="3">
-        <v>531900</v>
+        <v>526400</v>
       </c>
       <c r="J41" s="3">
-        <v>1456400</v>
+        <v>1441500</v>
       </c>
       <c r="K41" s="3">
         <v>1400400</v>
@@ -2106,25 +2106,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3028500</v>
+        <v>2997500</v>
       </c>
       <c r="E42" s="3">
-        <v>3123000</v>
+        <v>3091000</v>
       </c>
       <c r="F42" s="3">
-        <v>3047500</v>
+        <v>3016300</v>
       </c>
       <c r="G42" s="3">
-        <v>3003200</v>
+        <v>2972500</v>
       </c>
       <c r="H42" s="3">
-        <v>3107200</v>
+        <v>3075400</v>
       </c>
       <c r="I42" s="3">
-        <v>3312700</v>
+        <v>3278800</v>
       </c>
       <c r="J42" s="3">
-        <v>2394300</v>
+        <v>2369700</v>
       </c>
       <c r="K42" s="3">
         <v>1215400</v>
@@ -2153,25 +2153,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>382200</v>
+        <v>378300</v>
       </c>
       <c r="E43" s="3">
-        <v>392200</v>
+        <v>388200</v>
       </c>
       <c r="F43" s="3">
-        <v>338000</v>
+        <v>334500</v>
       </c>
       <c r="G43" s="3">
-        <v>299800</v>
+        <v>296700</v>
       </c>
       <c r="H43" s="3">
-        <v>260500</v>
+        <v>257800</v>
       </c>
       <c r="I43" s="3">
-        <v>248800</v>
+        <v>246300</v>
       </c>
       <c r="J43" s="3">
-        <v>237800</v>
+        <v>235400</v>
       </c>
       <c r="K43" s="3">
         <v>187700</v>
@@ -2247,25 +2247,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>304200</v>
+        <v>301100</v>
       </c>
       <c r="E45" s="3">
-        <v>218900</v>
+        <v>216600</v>
       </c>
       <c r="F45" s="3">
-        <v>212100</v>
+        <v>209900</v>
       </c>
       <c r="G45" s="3">
-        <v>128700</v>
+        <v>127400</v>
       </c>
       <c r="H45" s="3">
-        <v>167400</v>
+        <v>165700</v>
       </c>
       <c r="I45" s="3">
-        <v>171500</v>
+        <v>169800</v>
       </c>
       <c r="J45" s="3">
-        <v>142500</v>
+        <v>141100</v>
       </c>
       <c r="K45" s="3">
         <v>75600</v>
@@ -2294,25 +2294,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4452800</v>
+        <v>4407200</v>
       </c>
       <c r="E46" s="3">
-        <v>4445700</v>
+        <v>4400200</v>
       </c>
       <c r="F46" s="3">
-        <v>4288600</v>
+        <v>4244700</v>
       </c>
       <c r="G46" s="3">
-        <v>4052700</v>
+        <v>4011200</v>
       </c>
       <c r="H46" s="3">
-        <v>4150400</v>
+        <v>4107900</v>
       </c>
       <c r="I46" s="3">
-        <v>4264900</v>
+        <v>4221300</v>
       </c>
       <c r="J46" s="3">
-        <v>4231000</v>
+        <v>4187700</v>
       </c>
       <c r="K46" s="3">
         <v>2879100</v>
@@ -2341,25 +2341,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>254800</v>
+        <v>252200</v>
       </c>
       <c r="E47" s="3">
-        <v>257900</v>
+        <v>255300</v>
       </c>
       <c r="F47" s="3">
-        <v>249100</v>
+        <v>246600</v>
       </c>
       <c r="G47" s="3">
-        <v>241300</v>
+        <v>238900</v>
       </c>
       <c r="H47" s="3">
-        <v>241000</v>
+        <v>238600</v>
       </c>
       <c r="I47" s="3">
-        <v>208500</v>
+        <v>206400</v>
       </c>
       <c r="J47" s="3">
-        <v>145600</v>
+        <v>144200</v>
       </c>
       <c r="K47" s="3">
         <v>121800</v>
@@ -2388,19 +2388,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="E48" s="3">
-        <v>37900</v>
+        <v>37500</v>
       </c>
       <c r="F48" s="3">
-        <v>38500</v>
+        <v>38100</v>
       </c>
       <c r="G48" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="H48" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="I48" s="3">
         <v>5800</v>
@@ -2435,25 +2435,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>520900</v>
+        <v>515600</v>
       </c>
       <c r="E49" s="3">
-        <v>523100</v>
+        <v>517700</v>
       </c>
       <c r="F49" s="3">
-        <v>524600</v>
+        <v>519300</v>
       </c>
       <c r="G49" s="3">
-        <v>526600</v>
+        <v>521200</v>
       </c>
       <c r="H49" s="3">
-        <v>528800</v>
+        <v>523400</v>
       </c>
       <c r="I49" s="3">
-        <v>489900</v>
+        <v>484900</v>
       </c>
       <c r="J49" s="3">
-        <v>478600</v>
+        <v>473700</v>
       </c>
       <c r="K49" s="3">
         <v>467200</v>
@@ -2576,25 +2576,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="E52" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="F52" s="3">
         <v>8700</v>
       </c>
       <c r="G52" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="H52" s="3">
         <v>5400</v>
       </c>
       <c r="I52" s="3">
-        <v>28100</v>
+        <v>27800</v>
       </c>
       <c r="J52" s="3">
-        <v>92200</v>
+        <v>91200</v>
       </c>
       <c r="K52" s="3">
         <v>25000</v>
@@ -2670,25 +2670,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5270300</v>
+        <v>5216400</v>
       </c>
       <c r="E54" s="3">
-        <v>5275500</v>
+        <v>5221500</v>
       </c>
       <c r="F54" s="3">
-        <v>5109700</v>
+        <v>5057400</v>
       </c>
       <c r="G54" s="3">
-        <v>4861100</v>
+        <v>4811300</v>
       </c>
       <c r="H54" s="3">
-        <v>4940300</v>
+        <v>4889700</v>
       </c>
       <c r="I54" s="3">
-        <v>4997200</v>
+        <v>4946000</v>
       </c>
       <c r="J54" s="3">
-        <v>4952900</v>
+        <v>4902200</v>
       </c>
       <c r="K54" s="3">
         <v>3498600</v>
@@ -2758,22 +2758,22 @@
         <v>4000</v>
       </c>
       <c r="E57" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F57" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G57" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H57" s="3">
         <v>4200</v>
       </c>
       <c r="I57" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="J57" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K57" s="3">
         <v>3300</v>
@@ -2849,25 +2849,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>388300</v>
+        <v>384300</v>
       </c>
       <c r="E59" s="3">
-        <v>385400</v>
+        <v>381400</v>
       </c>
       <c r="F59" s="3">
-        <v>354600</v>
+        <v>350900</v>
       </c>
       <c r="G59" s="3">
-        <v>305900</v>
+        <v>302800</v>
       </c>
       <c r="H59" s="3">
-        <v>387100</v>
+        <v>383200</v>
       </c>
       <c r="I59" s="3">
-        <v>318700</v>
+        <v>315500</v>
       </c>
       <c r="J59" s="3">
-        <v>275800</v>
+        <v>273000</v>
       </c>
       <c r="K59" s="3">
         <v>269800</v>
@@ -2896,25 +2896,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>392300</v>
+        <v>388300</v>
       </c>
       <c r="E60" s="3">
-        <v>388800</v>
+        <v>384900</v>
       </c>
       <c r="F60" s="3">
-        <v>359600</v>
+        <v>355900</v>
       </c>
       <c r="G60" s="3">
-        <v>311900</v>
+        <v>308700</v>
       </c>
       <c r="H60" s="3">
-        <v>392600</v>
+        <v>388600</v>
       </c>
       <c r="I60" s="3">
-        <v>323200</v>
+        <v>319900</v>
       </c>
       <c r="J60" s="3">
-        <v>279300</v>
+        <v>276400</v>
       </c>
       <c r="K60" s="3">
         <v>273200</v>
@@ -2990,25 +2990,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22600</v>
+        <v>22400</v>
       </c>
       <c r="E62" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="F62" s="3">
-        <v>27100</v>
+        <v>26800</v>
       </c>
       <c r="G62" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="H62" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="I62" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="J62" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="K62" s="3">
         <v>16500</v>
@@ -3178,25 +3178,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>436500</v>
+        <v>432000</v>
       </c>
       <c r="E66" s="3">
-        <v>435500</v>
+        <v>431000</v>
       </c>
       <c r="F66" s="3">
-        <v>400200</v>
+        <v>396100</v>
       </c>
       <c r="G66" s="3">
-        <v>351200</v>
+        <v>347600</v>
       </c>
       <c r="H66" s="3">
-        <v>422700</v>
+        <v>418300</v>
       </c>
       <c r="I66" s="3">
-        <v>350700</v>
+        <v>347100</v>
       </c>
       <c r="J66" s="3">
-        <v>306100</v>
+        <v>303000</v>
       </c>
       <c r="K66" s="3">
         <v>289800</v>
@@ -3432,25 +3432,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2386000</v>
+        <v>-2361600</v>
       </c>
       <c r="E72" s="3">
-        <v>-2413900</v>
+        <v>-2389200</v>
       </c>
       <c r="F72" s="3">
-        <v>-2470400</v>
+        <v>-2445100</v>
       </c>
       <c r="G72" s="3">
-        <v>-2472000</v>
+        <v>-2446700</v>
       </c>
       <c r="H72" s="3">
-        <v>-2444400</v>
+        <v>-2419400</v>
       </c>
       <c r="I72" s="3">
-        <v>-2254700</v>
+        <v>-2231600</v>
       </c>
       <c r="J72" s="3">
-        <v>-2229100</v>
+        <v>-2206300</v>
       </c>
       <c r="K72" s="3">
         <v>-1860500</v>
@@ -3620,25 +3620,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4833900</v>
+        <v>4784400</v>
       </c>
       <c r="E76" s="3">
-        <v>4840000</v>
+        <v>4790500</v>
       </c>
       <c r="F76" s="3">
-        <v>4709500</v>
+        <v>4661300</v>
       </c>
       <c r="G76" s="3">
-        <v>4509900</v>
+        <v>4463700</v>
       </c>
       <c r="H76" s="3">
-        <v>4517600</v>
+        <v>4471400</v>
       </c>
       <c r="I76" s="3">
-        <v>4646500</v>
+        <v>4599000</v>
       </c>
       <c r="J76" s="3">
-        <v>4646700</v>
+        <v>4599200</v>
       </c>
       <c r="K76" s="3">
         <v>-1363400</v>
@@ -3766,25 +3766,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27800</v>
+        <v>27600</v>
       </c>
       <c r="E81" s="3">
-        <v>56500</v>
+        <v>55900</v>
       </c>
       <c r="F81" s="3">
         <v>1600</v>
       </c>
       <c r="G81" s="3">
-        <v>-27600</v>
+        <v>-27300</v>
       </c>
       <c r="H81" s="3">
-        <v>-189700</v>
+        <v>-187800</v>
       </c>
       <c r="I81" s="3">
-        <v>-25600</v>
+        <v>-25400</v>
       </c>
       <c r="J81" s="3">
-        <v>-316900</v>
+        <v>-313600</v>
       </c>
       <c r="K81" s="3">
         <v>-65000</v>
@@ -4113,17 +4113,17 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>10</v>
+      <c r="D89" s="3">
+        <v>-113200</v>
       </c>
       <c r="E89" s="3">
-        <v>57200</v>
+        <v>56600</v>
       </c>
       <c r="F89" s="3">
-        <v>55000</v>
+        <v>40700</v>
       </c>
       <c r="G89" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>10</v>

--- a/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>YMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>273300</v>
+        <v>284100</v>
       </c>
       <c r="E8" s="3">
-        <v>257100</v>
+        <v>234500</v>
       </c>
       <c r="F8" s="3">
-        <v>237400</v>
+        <v>264900</v>
       </c>
       <c r="G8" s="3">
-        <v>189400</v>
+        <v>249200</v>
       </c>
       <c r="H8" s="3">
-        <v>203200</v>
+        <v>230100</v>
       </c>
       <c r="I8" s="3">
+        <v>183600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>196900</v>
+      </c>
+      <c r="K8" s="3">
         <v>176500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>159000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>120700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>118400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>108300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>82100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>69200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>93800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>101700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>135300</v>
+        <v>134400</v>
       </c>
       <c r="E9" s="3">
-        <v>135500</v>
+        <v>117000</v>
       </c>
       <c r="F9" s="3">
-        <v>131600</v>
+        <v>131100</v>
       </c>
       <c r="G9" s="3">
-        <v>97200</v>
+        <v>131300</v>
       </c>
       <c r="H9" s="3">
-        <v>93600</v>
+        <v>127600</v>
       </c>
       <c r="I9" s="3">
+        <v>94200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K9" s="3">
         <v>119700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>89100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>57500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>55500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>51500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>55700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>29900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>52500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>138000</v>
+        <v>149700</v>
       </c>
       <c r="E10" s="3">
-        <v>121600</v>
+        <v>117500</v>
       </c>
       <c r="F10" s="3">
-        <v>105800</v>
+        <v>133700</v>
       </c>
       <c r="G10" s="3">
-        <v>92200</v>
+        <v>117900</v>
       </c>
       <c r="H10" s="3">
-        <v>109600</v>
+        <v>102500</v>
       </c>
       <c r="I10" s="3">
+        <v>89400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>106300</v>
+      </c>
+      <c r="K10" s="3">
         <v>56800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>69900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>63300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>62900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>56800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>26300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>39300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>41300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>35600</v>
+        <v>30800</v>
       </c>
       <c r="E12" s="3">
+        <v>31700</v>
+      </c>
+      <c r="F12" s="3">
+        <v>34500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>31200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>29800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>30400</v>
+      </c>
+      <c r="J12" s="3">
         <v>32200</v>
       </c>
-      <c r="F12" s="3">
-        <v>30800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>31400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>33200</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>28800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>22000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>19200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>16600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>17100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>12900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>14300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>17400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K14" s="3">
         <v>7900</v>
       </c>
-      <c r="I14" s="3">
-        <v>7900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>274000</v>
+        <v>238100</v>
       </c>
       <c r="E17" s="3">
-        <v>236900</v>
+        <v>211700</v>
       </c>
       <c r="F17" s="3">
-        <v>244000</v>
+        <v>265600</v>
       </c>
       <c r="G17" s="3">
-        <v>225200</v>
+        <v>229700</v>
       </c>
       <c r="H17" s="3">
-        <v>403300</v>
+        <v>236500</v>
       </c>
       <c r="I17" s="3">
+        <v>218300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>390900</v>
+      </c>
+      <c r="K17" s="3">
         <v>213100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>449100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>148800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>508900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="3">
         <v>185000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
-        <v>20100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-6600</v>
-      </c>
       <c r="G18" s="3">
-        <v>-35800</v>
+        <v>19500</v>
       </c>
       <c r="H18" s="3">
-        <v>-200100</v>
+        <v>-6400</v>
       </c>
       <c r="I18" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-193900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-36600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-290000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-28100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-390500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="3">
         <v>-91100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,75 +1277,83 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>30600</v>
+        <v>41600</v>
       </c>
       <c r="E20" s="3">
-        <v>46800</v>
+        <v>36500</v>
       </c>
       <c r="F20" s="3">
+        <v>29600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I20" s="3">
         <v>8800</v>
       </c>
-      <c r="G20" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>12900</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K20" s="3">
         <v>12100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>10000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>6700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="3">
         <v>6100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>30600</v>
+        <v>87600</v>
       </c>
       <c r="E21" s="3">
-        <v>66900</v>
+        <v>61200</v>
       </c>
       <c r="F21" s="3">
-        <v>2200</v>
+        <v>29600</v>
       </c>
       <c r="G21" s="3">
-        <v>-24700</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>10</v>
+        <v>64800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-23900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>10</v>
@@ -1287,26 +1361,32 @@
       <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3">
         <v>-374900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="3">
         <v>-74100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1334,120 +1414,138 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29800</v>
+        <v>87600</v>
       </c>
       <c r="E23" s="3">
-        <v>66900</v>
+        <v>59400</v>
       </c>
       <c r="F23" s="3">
-        <v>2200</v>
+        <v>28900</v>
       </c>
       <c r="G23" s="3">
-        <v>-26700</v>
+        <v>64800</v>
       </c>
       <c r="H23" s="3">
-        <v>-187200</v>
+        <v>2100</v>
       </c>
       <c r="I23" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-181400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-24500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-280000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-25200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-383800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-48800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-44100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-10200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-85800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
-        <v>10700</v>
+        <v>2700</v>
       </c>
       <c r="F24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>27800</v>
+        <v>83900</v>
       </c>
       <c r="E26" s="3">
-        <v>56200</v>
+        <v>56700</v>
       </c>
       <c r="F26" s="3">
+        <v>27000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>54500</v>
+      </c>
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-187800</v>
-      </c>
       <c r="I26" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-25300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-278400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-27400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-386400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" s="3">
         <v>-84900</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27600</v>
+        <v>83400</v>
       </c>
       <c r="E27" s="3">
-        <v>55900</v>
+        <v>56300</v>
       </c>
       <c r="F27" s="3">
+        <v>26700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>54200</v>
+      </c>
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-187800</v>
-      </c>
       <c r="I27" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-25400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-313600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-65000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-403100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R27" s="3">
         <v>-84900</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,28 +1750,34 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1673,16 +1795,22 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-30600</v>
+        <v>-41600</v>
       </c>
       <c r="E32" s="3">
-        <v>-46800</v>
+        <v>-36500</v>
       </c>
       <c r="F32" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-8800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-10000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-6700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27600</v>
+        <v>83400</v>
       </c>
       <c r="E33" s="3">
-        <v>55900</v>
+        <v>56300</v>
       </c>
       <c r="F33" s="3">
+        <v>26700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>54200</v>
+      </c>
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-187800</v>
-      </c>
       <c r="I33" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-25400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-313600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-65000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-403100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R33" s="3">
         <v>-84500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27600</v>
+        <v>83400</v>
       </c>
       <c r="E35" s="3">
-        <v>55900</v>
+        <v>56300</v>
       </c>
       <c r="F35" s="3">
+        <v>26700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>54200</v>
+      </c>
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-187800</v>
-      </c>
       <c r="I35" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-25400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-313600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-65000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-403100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="3">
         <v>-84500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,41 +2225,43 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>730300</v>
+        <v>974200</v>
       </c>
       <c r="E41" s="3">
-        <v>704400</v>
+        <v>939700</v>
       </c>
       <c r="F41" s="3">
-        <v>684000</v>
+        <v>707800</v>
       </c>
       <c r="G41" s="3">
-        <v>614700</v>
+        <v>682800</v>
       </c>
       <c r="H41" s="3">
-        <v>609000</v>
+        <v>663000</v>
       </c>
       <c r="I41" s="3">
+        <v>595800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>590300</v>
+      </c>
+      <c r="K41" s="3">
         <v>526400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1441500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1400400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2100,41 +2274,47 @@
       <c r="Q41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2997500</v>
+        <v>2460700</v>
       </c>
       <c r="E42" s="3">
-        <v>3091000</v>
+        <v>2603600</v>
       </c>
       <c r="F42" s="3">
-        <v>3016300</v>
+        <v>2905400</v>
       </c>
       <c r="G42" s="3">
-        <v>2972500</v>
+        <v>2996000</v>
       </c>
       <c r="H42" s="3">
-        <v>3075400</v>
+        <v>2923600</v>
       </c>
       <c r="I42" s="3">
+        <v>2881100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2980800</v>
+      </c>
+      <c r="K42" s="3">
         <v>3278800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2369700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1215400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
@@ -2147,41 +2327,47 @@
       <c r="Q42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>378300</v>
+        <v>435300</v>
       </c>
       <c r="E43" s="3">
-        <v>388200</v>
+        <v>383100</v>
       </c>
       <c r="F43" s="3">
-        <v>334500</v>
+        <v>366700</v>
       </c>
       <c r="G43" s="3">
-        <v>296700</v>
+        <v>376300</v>
       </c>
       <c r="H43" s="3">
-        <v>257800</v>
+        <v>324200</v>
       </c>
       <c r="I43" s="3">
+        <v>287600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>249900</v>
+      </c>
+      <c r="K43" s="3">
         <v>246300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>235400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>187700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,41 +2433,47 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>301100</v>
+        <v>298100</v>
       </c>
       <c r="E45" s="3">
-        <v>216600</v>
+        <v>330600</v>
       </c>
       <c r="F45" s="3">
-        <v>209900</v>
+        <v>291800</v>
       </c>
       <c r="G45" s="3">
-        <v>127400</v>
+        <v>210000</v>
       </c>
       <c r="H45" s="3">
-        <v>165700</v>
+        <v>203500</v>
       </c>
       <c r="I45" s="3">
+        <v>123500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>160600</v>
+      </c>
+      <c r="K45" s="3">
         <v>169800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>141100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>75600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2288,41 +2486,47 @@
       <c r="Q45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4407200</v>
+        <v>4168300</v>
       </c>
       <c r="E46" s="3">
-        <v>4400200</v>
+        <v>4257000</v>
       </c>
       <c r="F46" s="3">
-        <v>4244700</v>
+        <v>4271700</v>
       </c>
       <c r="G46" s="3">
-        <v>4011200</v>
+        <v>4265000</v>
       </c>
       <c r="H46" s="3">
-        <v>4107900</v>
+        <v>4114200</v>
       </c>
       <c r="I46" s="3">
+        <v>3887900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3981600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4221300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4187700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2879100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2335,41 +2539,47 @@
       <c r="Q46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>252200</v>
+        <v>579000</v>
       </c>
       <c r="E47" s="3">
-        <v>255300</v>
+        <v>247100</v>
       </c>
       <c r="F47" s="3">
-        <v>246600</v>
+        <v>244500</v>
       </c>
       <c r="G47" s="3">
-        <v>238900</v>
+        <v>247400</v>
       </c>
       <c r="H47" s="3">
-        <v>238600</v>
+        <v>239000</v>
       </c>
       <c r="I47" s="3">
+        <v>231500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>231200</v>
+      </c>
+      <c r="K47" s="3">
         <v>206400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>144200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>121800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
@@ -2382,41 +2592,47 @@
       <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34200</v>
+        <v>37100</v>
       </c>
       <c r="E48" s="3">
-        <v>37500</v>
+        <v>36800</v>
       </c>
       <c r="F48" s="3">
-        <v>38100</v>
+        <v>33200</v>
       </c>
       <c r="G48" s="3">
-        <v>31600</v>
+        <v>36300</v>
       </c>
       <c r="H48" s="3">
-        <v>14500</v>
+        <v>36900</v>
       </c>
       <c r="I48" s="3">
+        <v>30600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K48" s="3">
         <v>5800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2429,41 +2645,47 @@
       <c r="Q48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>515600</v>
+        <v>496000</v>
       </c>
       <c r="E49" s="3">
-        <v>517700</v>
+        <v>497800</v>
       </c>
       <c r="F49" s="3">
-        <v>519300</v>
+        <v>499800</v>
       </c>
       <c r="G49" s="3">
-        <v>521200</v>
+        <v>501800</v>
       </c>
       <c r="H49" s="3">
-        <v>523400</v>
+        <v>503300</v>
       </c>
       <c r="I49" s="3">
+        <v>505200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>507300</v>
+      </c>
+      <c r="K49" s="3">
         <v>484900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>473700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>467200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,41 +2804,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7100</v>
+        <v>8000</v>
       </c>
       <c r="E52" s="3">
-        <v>10800</v>
+        <v>6900</v>
       </c>
       <c r="F52" s="3">
-        <v>8700</v>
+        <v>6900</v>
       </c>
       <c r="G52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H52" s="3">
         <v>8400</v>
       </c>
-      <c r="H52" s="3">
-        <v>5400</v>
-      </c>
       <c r="I52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K52" s="3">
         <v>27800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>91200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>25000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,41 +2910,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5216400</v>
+        <v>5288400</v>
       </c>
       <c r="E54" s="3">
-        <v>5221500</v>
+        <v>5045600</v>
       </c>
       <c r="F54" s="3">
-        <v>5057400</v>
+        <v>5056000</v>
       </c>
       <c r="G54" s="3">
-        <v>4811300</v>
+        <v>5061000</v>
       </c>
       <c r="H54" s="3">
-        <v>4889700</v>
+        <v>4901900</v>
       </c>
       <c r="I54" s="3">
+        <v>4663400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4739400</v>
+      </c>
+      <c r="K54" s="3">
         <v>4946000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4902200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3498600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,41 +3009,43 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="K57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2796,88 +3058,100 @@
       <c r="Q57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="I58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>10</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>384300</v>
+        <v>396200</v>
       </c>
       <c r="E59" s="3">
-        <v>381400</v>
+        <v>346600</v>
       </c>
       <c r="F59" s="3">
-        <v>350900</v>
+        <v>372500</v>
       </c>
       <c r="G59" s="3">
-        <v>302800</v>
+        <v>369700</v>
       </c>
       <c r="H59" s="3">
-        <v>383200</v>
+        <v>340100</v>
       </c>
       <c r="I59" s="3">
+        <v>293400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K59" s="3">
         <v>315500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>273000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>269800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2890,41 +3164,47 @@
       <c r="Q59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>388300</v>
+        <v>401000</v>
       </c>
       <c r="E60" s="3">
-        <v>384900</v>
+        <v>350500</v>
       </c>
       <c r="F60" s="3">
-        <v>355900</v>
+        <v>376400</v>
       </c>
       <c r="G60" s="3">
-        <v>308700</v>
+        <v>373000</v>
       </c>
       <c r="H60" s="3">
-        <v>388600</v>
+        <v>344900</v>
       </c>
       <c r="I60" s="3">
+        <v>299200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>376700</v>
+      </c>
+      <c r="K60" s="3">
         <v>319900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>276400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>273200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2937,8 +3217,14 @@
       <c r="Q60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,41 +3270,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22400</v>
+        <v>18700</v>
       </c>
       <c r="E62" s="3">
-        <v>25100</v>
+        <v>20200</v>
       </c>
       <c r="F62" s="3">
-        <v>26800</v>
+        <v>21700</v>
       </c>
       <c r="G62" s="3">
-        <v>28500</v>
+        <v>24400</v>
       </c>
       <c r="H62" s="3">
-        <v>19300</v>
+        <v>26000</v>
       </c>
       <c r="I62" s="3">
+        <v>27600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K62" s="3">
         <v>16700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>16100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>16500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,41 +3482,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>432000</v>
+        <v>457400</v>
       </c>
       <c r="E66" s="3">
-        <v>431000</v>
+        <v>391700</v>
       </c>
       <c r="F66" s="3">
-        <v>396100</v>
+        <v>418700</v>
       </c>
       <c r="G66" s="3">
-        <v>347600</v>
+        <v>417800</v>
       </c>
       <c r="H66" s="3">
-        <v>418300</v>
+        <v>383900</v>
       </c>
       <c r="I66" s="3">
+        <v>336900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>405500</v>
+      </c>
+      <c r="K66" s="3">
         <v>347100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>303000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>289800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3219,8 +3535,14 @@
       <c r="Q66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3359,14 +3695,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>4572200</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,41 +3768,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2361600</v>
+        <v>-2149200</v>
       </c>
       <c r="E72" s="3">
-        <v>-2389200</v>
+        <v>-2232700</v>
       </c>
       <c r="F72" s="3">
-        <v>-2445100</v>
+        <v>-2289000</v>
       </c>
       <c r="G72" s="3">
-        <v>-2446700</v>
+        <v>-2315700</v>
       </c>
       <c r="H72" s="3">
-        <v>-2419400</v>
+        <v>-2369900</v>
       </c>
       <c r="I72" s="3">
+        <v>-2371500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-2345100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2231600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2206300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1860500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3473,8 +3821,14 @@
       <c r="Q72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,41 +3980,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4784400</v>
+        <v>4831000</v>
       </c>
       <c r="E76" s="3">
-        <v>4790500</v>
+        <v>4654000</v>
       </c>
       <c r="F76" s="3">
-        <v>4661300</v>
+        <v>4637300</v>
       </c>
       <c r="G76" s="3">
-        <v>4463700</v>
+        <v>4643200</v>
       </c>
       <c r="H76" s="3">
-        <v>4471400</v>
+        <v>4518000</v>
       </c>
       <c r="I76" s="3">
+        <v>4326500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4333900</v>
+      </c>
+      <c r="K76" s="3">
         <v>4599000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4599200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1363400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3661,8 +4033,14 @@
       <c r="Q76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27600</v>
+        <v>83400</v>
       </c>
       <c r="E81" s="3">
-        <v>55900</v>
+        <v>56300</v>
       </c>
       <c r="F81" s="3">
+        <v>26700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>54200</v>
+      </c>
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-187800</v>
-      </c>
       <c r="I81" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-25400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-313600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-65000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-403100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R81" s="3">
         <v>-84500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3867,14 +4265,20 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,37 +4536,43 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-113200</v>
+        <v>-11900</v>
       </c>
       <c r="E89" s="3">
-        <v>56600</v>
+        <v>12000</v>
       </c>
       <c r="F89" s="3">
-        <v>40700</v>
+        <v>-109700</v>
       </c>
       <c r="G89" s="3">
-        <v>13700</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>10</v>
+        <v>54900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>39500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>13300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4149,14 +4583,20 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4215,14 +4657,20 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4356,14 +4816,20 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4610,14 +5102,20 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4657,14 +5155,20 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4704,10 +5208,16 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q102" s="3" t="s">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YMM_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>284100</v>
+        <v>284700</v>
       </c>
       <c r="E8" s="3">
-        <v>234500</v>
+        <v>235100</v>
       </c>
       <c r="F8" s="3">
-        <v>264900</v>
+        <v>265500</v>
       </c>
       <c r="G8" s="3">
-        <v>249200</v>
+        <v>249700</v>
       </c>
       <c r="H8" s="3">
-        <v>230100</v>
+        <v>230600</v>
       </c>
       <c r="I8" s="3">
-        <v>183600</v>
+        <v>184000</v>
       </c>
       <c r="J8" s="3">
-        <v>196900</v>
+        <v>197400</v>
       </c>
       <c r="K8" s="3">
         <v>176500</v>
@@ -801,25 +801,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>134400</v>
+        <v>134700</v>
       </c>
       <c r="E9" s="3">
-        <v>117000</v>
+        <v>117300</v>
       </c>
       <c r="F9" s="3">
-        <v>131100</v>
+        <v>131400</v>
       </c>
       <c r="G9" s="3">
-        <v>131300</v>
+        <v>131600</v>
       </c>
       <c r="H9" s="3">
-        <v>127600</v>
+        <v>127900</v>
       </c>
       <c r="I9" s="3">
-        <v>94200</v>
+        <v>94400</v>
       </c>
       <c r="J9" s="3">
-        <v>90700</v>
+        <v>90900</v>
       </c>
       <c r="K9" s="3">
         <v>119700</v>
@@ -854,25 +854,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>149700</v>
+        <v>150100</v>
       </c>
       <c r="E10" s="3">
-        <v>117500</v>
+        <v>117800</v>
       </c>
       <c r="F10" s="3">
-        <v>133700</v>
+        <v>134000</v>
       </c>
       <c r="G10" s="3">
-        <v>117900</v>
+        <v>118100</v>
       </c>
       <c r="H10" s="3">
-        <v>102500</v>
+        <v>102800</v>
       </c>
       <c r="I10" s="3">
-        <v>89400</v>
+        <v>89600</v>
       </c>
       <c r="J10" s="3">
-        <v>106300</v>
+        <v>106500</v>
       </c>
       <c r="K10" s="3">
         <v>56800</v>
@@ -928,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>30800</v>
+        <v>30900</v>
       </c>
       <c r="E12" s="3">
         <v>31700</v>
@@ -937,16 +937,16 @@
         <v>34500</v>
       </c>
       <c r="G12" s="3">
-        <v>31200</v>
+        <v>31300</v>
       </c>
       <c r="H12" s="3">
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="I12" s="3">
-        <v>30400</v>
+        <v>30500</v>
       </c>
       <c r="J12" s="3">
-        <v>32200</v>
+        <v>32300</v>
       </c>
       <c r="K12" s="3">
         <v>28800</v>
@@ -1158,25 +1158,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>238100</v>
+        <v>238600</v>
       </c>
       <c r="E17" s="3">
-        <v>211700</v>
+        <v>212200</v>
       </c>
       <c r="F17" s="3">
-        <v>265600</v>
+        <v>266200</v>
       </c>
       <c r="G17" s="3">
-        <v>229700</v>
+        <v>230200</v>
       </c>
       <c r="H17" s="3">
-        <v>236500</v>
+        <v>237000</v>
       </c>
       <c r="I17" s="3">
-        <v>218300</v>
+        <v>218800</v>
       </c>
       <c r="J17" s="3">
-        <v>390900</v>
+        <v>391700</v>
       </c>
       <c r="K17" s="3">
         <v>213100</v>
@@ -1211,25 +1211,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="E18" s="3">
-        <v>22800</v>
+        <v>22900</v>
       </c>
       <c r="F18" s="3">
         <v>-700</v>
       </c>
       <c r="G18" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="H18" s="3">
         <v>-6400</v>
       </c>
       <c r="I18" s="3">
-        <v>-34700</v>
+        <v>-34800</v>
       </c>
       <c r="J18" s="3">
-        <v>-193900</v>
+        <v>-194400</v>
       </c>
       <c r="K18" s="3">
         <v>-36600</v>
@@ -1285,22 +1285,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>41600</v>
+        <v>41700</v>
       </c>
       <c r="E20" s="3">
-        <v>36500</v>
+        <v>36600</v>
       </c>
       <c r="F20" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="G20" s="3">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="H20" s="3">
         <v>8500</v>
       </c>
       <c r="I20" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="J20" s="3">
         <v>12500</v>
@@ -1338,22 +1338,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>87600</v>
+        <v>87800</v>
       </c>
       <c r="E21" s="3">
-        <v>61200</v>
+        <v>61300</v>
       </c>
       <c r="F21" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="G21" s="3">
-        <v>64800</v>
+        <v>65000</v>
       </c>
       <c r="H21" s="3">
         <v>2100</v>
       </c>
       <c r="I21" s="3">
-        <v>-23900</v>
+        <v>-24000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>10</v>
@@ -1444,16 +1444,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>87600</v>
+        <v>87800</v>
       </c>
       <c r="E23" s="3">
-        <v>59400</v>
+        <v>59500</v>
       </c>
       <c r="F23" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="G23" s="3">
-        <v>64800</v>
+        <v>65000</v>
       </c>
       <c r="H23" s="3">
         <v>2100</v>
@@ -1462,7 +1462,7 @@
         <v>-25900</v>
       </c>
       <c r="J23" s="3">
-        <v>-181400</v>
+        <v>-181800</v>
       </c>
       <c r="K23" s="3">
         <v>-24500</v>
@@ -1603,16 +1603,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>83900</v>
+        <v>84100</v>
       </c>
       <c r="E26" s="3">
-        <v>56700</v>
+        <v>56800</v>
       </c>
       <c r="F26" s="3">
         <v>27000</v>
       </c>
       <c r="G26" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="H26" s="3">
         <v>1800</v>
@@ -1621,7 +1621,7 @@
         <v>-26500</v>
       </c>
       <c r="J26" s="3">
-        <v>-182000</v>
+        <v>-182400</v>
       </c>
       <c r="K26" s="3">
         <v>-25300</v>
@@ -1656,16 +1656,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>83400</v>
+        <v>83600</v>
       </c>
       <c r="E27" s="3">
-        <v>56300</v>
+        <v>56500</v>
       </c>
       <c r="F27" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="G27" s="3">
-        <v>54200</v>
+        <v>54300</v>
       </c>
       <c r="H27" s="3">
         <v>1600</v>
@@ -1674,7 +1674,7 @@
         <v>-26500</v>
       </c>
       <c r="J27" s="3">
-        <v>-182000</v>
+        <v>-182400</v>
       </c>
       <c r="K27" s="3">
         <v>-25400</v>
@@ -1921,22 +1921,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-41600</v>
+        <v>-41700</v>
       </c>
       <c r="E32" s="3">
-        <v>-36500</v>
+        <v>-36600</v>
       </c>
       <c r="F32" s="3">
-        <v>-29600</v>
+        <v>-29700</v>
       </c>
       <c r="G32" s="3">
-        <v>-45300</v>
+        <v>-45400</v>
       </c>
       <c r="H32" s="3">
         <v>-8500</v>
       </c>
       <c r="I32" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="J32" s="3">
         <v>-12500</v>
@@ -1974,16 +1974,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>83400</v>
+        <v>83600</v>
       </c>
       <c r="E33" s="3">
-        <v>56300</v>
+        <v>56500</v>
       </c>
       <c r="F33" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="G33" s="3">
-        <v>54200</v>
+        <v>54300</v>
       </c>
       <c r="H33" s="3">
         <v>1600</v>
@@ -1992,7 +1992,7 @@
         <v>-26500</v>
       </c>
       <c r="J33" s="3">
-        <v>-182000</v>
+        <v>-182400</v>
       </c>
       <c r="K33" s="3">
         <v>-25400</v>
@@ -2080,16 +2080,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>83400</v>
+        <v>83600</v>
       </c>
       <c r="E35" s="3">
-        <v>56300</v>
+        <v>56500</v>
       </c>
       <c r="F35" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="G35" s="3">
-        <v>54200</v>
+        <v>54300</v>
       </c>
       <c r="H35" s="3">
         <v>1600</v>
@@ -2098,7 +2098,7 @@
         <v>-26500</v>
       </c>
       <c r="J35" s="3">
-        <v>-182000</v>
+        <v>-182400</v>
       </c>
       <c r="K35" s="3">
         <v>-25400</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>974200</v>
+        <v>976400</v>
       </c>
       <c r="E41" s="3">
-        <v>939700</v>
+        <v>941800</v>
       </c>
       <c r="F41" s="3">
-        <v>707800</v>
+        <v>709400</v>
       </c>
       <c r="G41" s="3">
-        <v>682800</v>
+        <v>684200</v>
       </c>
       <c r="H41" s="3">
-        <v>663000</v>
+        <v>664400</v>
       </c>
       <c r="I41" s="3">
-        <v>595800</v>
+        <v>597100</v>
       </c>
       <c r="J41" s="3">
-        <v>590300</v>
+        <v>591600</v>
       </c>
       <c r="K41" s="3">
         <v>526400</v>
@@ -2286,25 +2286,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2460700</v>
+        <v>2466100</v>
       </c>
       <c r="E42" s="3">
-        <v>2603600</v>
+        <v>2609300</v>
       </c>
       <c r="F42" s="3">
-        <v>2905400</v>
+        <v>2911700</v>
       </c>
       <c r="G42" s="3">
-        <v>2996000</v>
+        <v>3002500</v>
       </c>
       <c r="H42" s="3">
-        <v>2923600</v>
+        <v>2930000</v>
       </c>
       <c r="I42" s="3">
-        <v>2881100</v>
+        <v>2887400</v>
       </c>
       <c r="J42" s="3">
-        <v>2980800</v>
+        <v>2987300</v>
       </c>
       <c r="K42" s="3">
         <v>3278800</v>
@@ -2339,25 +2339,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>435300</v>
+        <v>436200</v>
       </c>
       <c r="E43" s="3">
-        <v>383100</v>
+        <v>383900</v>
       </c>
       <c r="F43" s="3">
-        <v>366700</v>
+        <v>367500</v>
       </c>
       <c r="G43" s="3">
-        <v>376300</v>
+        <v>377100</v>
       </c>
       <c r="H43" s="3">
-        <v>324200</v>
+        <v>324900</v>
       </c>
       <c r="I43" s="3">
-        <v>287600</v>
+        <v>288200</v>
       </c>
       <c r="J43" s="3">
-        <v>249900</v>
+        <v>250500</v>
       </c>
       <c r="K43" s="3">
         <v>246300</v>
@@ -2445,25 +2445,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>298100</v>
+        <v>298700</v>
       </c>
       <c r="E45" s="3">
-        <v>330600</v>
+        <v>331300</v>
       </c>
       <c r="F45" s="3">
-        <v>291800</v>
+        <v>292500</v>
       </c>
       <c r="G45" s="3">
-        <v>210000</v>
+        <v>210400</v>
       </c>
       <c r="H45" s="3">
-        <v>203500</v>
+        <v>203900</v>
       </c>
       <c r="I45" s="3">
-        <v>123500</v>
+        <v>123700</v>
       </c>
       <c r="J45" s="3">
-        <v>160600</v>
+        <v>160900</v>
       </c>
       <c r="K45" s="3">
         <v>169800</v>
@@ -2498,25 +2498,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4168300</v>
+        <v>4177400</v>
       </c>
       <c r="E46" s="3">
-        <v>4257000</v>
+        <v>4266300</v>
       </c>
       <c r="F46" s="3">
-        <v>4271700</v>
+        <v>4281000</v>
       </c>
       <c r="G46" s="3">
-        <v>4265000</v>
+        <v>4274200</v>
       </c>
       <c r="H46" s="3">
-        <v>4114200</v>
+        <v>4123200</v>
       </c>
       <c r="I46" s="3">
-        <v>3887900</v>
+        <v>3896400</v>
       </c>
       <c r="J46" s="3">
-        <v>3981600</v>
+        <v>3990300</v>
       </c>
       <c r="K46" s="3">
         <v>4221300</v>
@@ -2551,25 +2551,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>579000</v>
+        <v>580200</v>
       </c>
       <c r="E47" s="3">
-        <v>247100</v>
+        <v>247700</v>
       </c>
       <c r="F47" s="3">
-        <v>244500</v>
+        <v>245000</v>
       </c>
       <c r="G47" s="3">
-        <v>247400</v>
+        <v>248000</v>
       </c>
       <c r="H47" s="3">
-        <v>239000</v>
+        <v>239500</v>
       </c>
       <c r="I47" s="3">
-        <v>231500</v>
+        <v>232000</v>
       </c>
       <c r="J47" s="3">
-        <v>231200</v>
+        <v>231700</v>
       </c>
       <c r="K47" s="3">
         <v>206400</v>
@@ -2604,22 +2604,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37100</v>
+        <v>37200</v>
       </c>
       <c r="E48" s="3">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="F48" s="3">
-        <v>33200</v>
+        <v>33300</v>
       </c>
       <c r="G48" s="3">
-        <v>36300</v>
+        <v>36400</v>
       </c>
       <c r="H48" s="3">
-        <v>36900</v>
+        <v>37000</v>
       </c>
       <c r="I48" s="3">
-        <v>30600</v>
+        <v>30700</v>
       </c>
       <c r="J48" s="3">
         <v>14100</v>
@@ -2657,25 +2657,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>496000</v>
+        <v>497100</v>
       </c>
       <c r="E49" s="3">
-        <v>497800</v>
+        <v>498900</v>
       </c>
       <c r="F49" s="3">
-        <v>499800</v>
+        <v>500900</v>
       </c>
       <c r="G49" s="3">
-        <v>501800</v>
+        <v>502900</v>
       </c>
       <c r="H49" s="3">
-        <v>503300</v>
+        <v>504400</v>
       </c>
       <c r="I49" s="3">
-        <v>505200</v>
+        <v>506300</v>
       </c>
       <c r="J49" s="3">
-        <v>507300</v>
+        <v>508400</v>
       </c>
       <c r="K49" s="3">
         <v>484900</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5288400</v>
+        <v>5299900</v>
       </c>
       <c r="E54" s="3">
-        <v>5045600</v>
+        <v>5056600</v>
       </c>
       <c r="F54" s="3">
-        <v>5056000</v>
+        <v>5067000</v>
       </c>
       <c r="G54" s="3">
-        <v>5061000</v>
+        <v>5072000</v>
       </c>
       <c r="H54" s="3">
-        <v>4901900</v>
+        <v>4912600</v>
       </c>
       <c r="I54" s="3">
-        <v>4663400</v>
+        <v>4673600</v>
       </c>
       <c r="J54" s="3">
-        <v>4739400</v>
+        <v>4749700</v>
       </c>
       <c r="K54" s="3">
         <v>4946000</v>
@@ -3035,7 +3035,7 @@
         <v>4500</v>
       </c>
       <c r="J57" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K57" s="3">
         <v>4400</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>396200</v>
+        <v>397100</v>
       </c>
       <c r="E59" s="3">
-        <v>346600</v>
+        <v>347300</v>
       </c>
       <c r="F59" s="3">
-        <v>372500</v>
+        <v>373300</v>
       </c>
       <c r="G59" s="3">
-        <v>369700</v>
+        <v>370500</v>
       </c>
       <c r="H59" s="3">
-        <v>340100</v>
+        <v>340900</v>
       </c>
       <c r="I59" s="3">
-        <v>293400</v>
+        <v>294100</v>
       </c>
       <c r="J59" s="3">
-        <v>371400</v>
+        <v>372200</v>
       </c>
       <c r="K59" s="3">
         <v>315500</v>
@@ -3176,25 +3176,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>401000</v>
+        <v>401900</v>
       </c>
       <c r="E60" s="3">
-        <v>350500</v>
+        <v>351300</v>
       </c>
       <c r="F60" s="3">
-        <v>376400</v>
+        <v>377200</v>
       </c>
       <c r="G60" s="3">
-        <v>373000</v>
+        <v>373800</v>
       </c>
       <c r="H60" s="3">
-        <v>344900</v>
+        <v>345700</v>
       </c>
       <c r="I60" s="3">
-        <v>299200</v>
+        <v>299800</v>
       </c>
       <c r="J60" s="3">
-        <v>376700</v>
+        <v>377500</v>
       </c>
       <c r="K60" s="3">
         <v>319900</v>
@@ -3288,7 +3288,7 @@
         <v>20200</v>
       </c>
       <c r="F62" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="G62" s="3">
         <v>24400</v>
@@ -3297,7 +3297,7 @@
         <v>26000</v>
       </c>
       <c r="I62" s="3">
-        <v>27600</v>
+        <v>27700</v>
       </c>
       <c r="J62" s="3">
         <v>18700</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>457400</v>
+        <v>458400</v>
       </c>
       <c r="E66" s="3">
-        <v>391700</v>
+        <v>392500</v>
       </c>
       <c r="F66" s="3">
+        <v>419600</v>
+      </c>
+      <c r="G66" s="3">
         <v>418700</v>
       </c>
-      <c r="G66" s="3">
-        <v>417800</v>
-      </c>
       <c r="H66" s="3">
-        <v>383900</v>
+        <v>384800</v>
       </c>
       <c r="I66" s="3">
-        <v>336900</v>
+        <v>337600</v>
       </c>
       <c r="J66" s="3">
-        <v>405500</v>
+        <v>406400</v>
       </c>
       <c r="K66" s="3">
         <v>347100</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2149200</v>
+        <v>-2153900</v>
       </c>
       <c r="E72" s="3">
-        <v>-2232700</v>
+        <v>-2237500</v>
       </c>
       <c r="F72" s="3">
-        <v>-2289000</v>
+        <v>-2294000</v>
       </c>
       <c r="G72" s="3">
-        <v>-2315700</v>
+        <v>-2320800</v>
       </c>
       <c r="H72" s="3">
-        <v>-2369900</v>
+        <v>-2375100</v>
       </c>
       <c r="I72" s="3">
-        <v>-2371500</v>
+        <v>-2376700</v>
       </c>
       <c r="J72" s="3">
-        <v>-2345100</v>
+        <v>-2350200</v>
       </c>
       <c r="K72" s="3">
         <v>-2231600</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4831000</v>
+        <v>4841500</v>
       </c>
       <c r="E76" s="3">
-        <v>4654000</v>
+        <v>4664100</v>
       </c>
       <c r="F76" s="3">
-        <v>4637300</v>
+        <v>4647400</v>
       </c>
       <c r="G76" s="3">
-        <v>4643200</v>
+        <v>4653300</v>
       </c>
       <c r="H76" s="3">
-        <v>4518000</v>
+        <v>4527800</v>
       </c>
       <c r="I76" s="3">
-        <v>4326500</v>
+        <v>4335900</v>
       </c>
       <c r="J76" s="3">
-        <v>4333900</v>
+        <v>4343400</v>
       </c>
       <c r="K76" s="3">
         <v>4599000</v>
@@ -4156,16 +4156,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>83400</v>
+        <v>83600</v>
       </c>
       <c r="E81" s="3">
-        <v>56300</v>
+        <v>56500</v>
       </c>
       <c r="F81" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="G81" s="3">
-        <v>54200</v>
+        <v>54300</v>
       </c>
       <c r="H81" s="3">
         <v>1600</v>
@@ -4174,7 +4174,7 @@
         <v>-26500</v>
       </c>
       <c r="J81" s="3">
-        <v>-182000</v>
+        <v>-182400</v>
       </c>
       <c r="K81" s="3">
         <v>-25400</v>
@@ -4554,10 +4554,10 @@
         <v>12000</v>
       </c>
       <c r="F89" s="3">
-        <v>-109700</v>
+        <v>-110000</v>
       </c>
       <c r="G89" s="3">
-        <v>54900</v>
+        <v>55000</v>
       </c>
       <c r="H89" s="3">
         <v>39500</v>
